--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4001181.912119704</v>
+        <v>4001414.553193042</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53890.85515285069</v>
+        <v>53890.85515285135</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -715,10 +715,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>98.74855378848305</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>61.88144731930497</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.86372679529251</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H5" t="n">
-        <v>50.29171516770224</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>52.00185144001363</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>27.42770526705033</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>75.08620022294134</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1183,13 +1183,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>18.29749587628852</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>42.69081075663298</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>60.40194813641946</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>290.9151919517672</v>
       </c>
       <c r="F11" t="n">
-        <v>270.7261480627146</v>
+        <v>270.7261480627151</v>
       </c>
       <c r="G11" t="n">
         <v>322.0772286298367</v>
@@ -1542,10 +1542,10 @@
         <v>54.40586990243661</v>
       </c>
       <c r="G13" t="n">
-        <v>75.98432295022737</v>
+        <v>75.98432295022749</v>
       </c>
       <c r="H13" t="n">
-        <v>62.39685106506708</v>
+        <v>62.39685106506717</v>
       </c>
       <c r="I13" t="n">
         <v>34.61884066282539</v>
@@ -1584,7 +1584,7 @@
         <v>132.694094987457</v>
       </c>
       <c r="U13" t="n">
-        <v>195.2497706021198</v>
+        <v>195.2497706021201</v>
       </c>
       <c r="V13" t="n">
         <v>161.1224652033334</v>
@@ -1624,10 +1624,10 @@
         <v>322.0772286298367</v>
       </c>
       <c r="H14" t="n">
-        <v>214.9352891315394</v>
+        <v>225.8230740502262</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.2469346398149</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>122.4049485207083</v>
       </c>
       <c r="U14" t="n">
-        <v>160.1536483261576</v>
+        <v>115.0189287676553</v>
       </c>
       <c r="V14" t="n">
         <v>236.7370803496403</v>
@@ -1779,13 +1779,13 @@
         <v>54.40586990243661</v>
       </c>
       <c r="G16" t="n">
-        <v>75.98432295022747</v>
+        <v>75.98432295022735</v>
       </c>
       <c r="H16" t="n">
-        <v>62.39685106506717</v>
+        <v>62.39685106506718</v>
       </c>
       <c r="I16" t="n">
-        <v>34.6188406628254</v>
+        <v>34.61884066282539</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.69774406443831</v>
+        <v>41.69774406443829</v>
       </c>
       <c r="S16" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T16" t="n">
-        <v>132.694094987457</v>
+        <v>132.6940949874571</v>
       </c>
       <c r="U16" t="n">
-        <v>195.2497706021198</v>
+        <v>195.2497706021197</v>
       </c>
       <c r="V16" t="n">
         <v>161.1224652033334</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.7096822390859</v>
+        <v>288.7096822390857</v>
       </c>
       <c r="C17" t="n">
-        <v>271.2487323466128</v>
+        <v>271.2487323466127</v>
       </c>
       <c r="D17" t="n">
-        <v>260.6588821962882</v>
+        <v>260.6588821962881</v>
       </c>
       <c r="E17" t="n">
-        <v>287.9062106478671</v>
+        <v>287.9062106478669</v>
       </c>
       <c r="F17" t="n">
-        <v>312.8518863173167</v>
+        <v>312.8518863173166</v>
       </c>
       <c r="G17" t="n">
-        <v>319.0682473259366</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H17" t="n">
-        <v>222.8140927463261</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I17" t="n">
-        <v>31.23795333591417</v>
+        <v>31.2379533359147</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.62799785888529</v>
+        <v>64.62799785888724</v>
       </c>
       <c r="T17" t="n">
-        <v>119.3959672168082</v>
+        <v>119.3959672168081</v>
       </c>
       <c r="U17" t="n">
-        <v>157.1446670222575</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V17" t="n">
-        <v>233.7280990457402</v>
+        <v>233.7280990457401</v>
       </c>
       <c r="W17" t="n">
-        <v>255.2168092930183</v>
+        <v>255.2168092930182</v>
       </c>
       <c r="X17" t="n">
-        <v>275.7069412540743</v>
+        <v>275.7069412540742</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.2137792316589</v>
+        <v>292.2137792316587</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.80782075754259</v>
+        <v>85.80782075754246</v>
       </c>
       <c r="C19" t="n">
-        <v>73.22266167423312</v>
+        <v>73.222661674233</v>
       </c>
       <c r="D19" t="n">
-        <v>54.59131359381765</v>
+        <v>54.59131359381752</v>
       </c>
       <c r="E19" t="n">
-        <v>52.40980322217446</v>
+        <v>52.40980322217433</v>
       </c>
       <c r="F19" t="n">
-        <v>51.39688859853653</v>
+        <v>51.39688859853641</v>
       </c>
       <c r="G19" t="n">
-        <v>72.97534164632728</v>
+        <v>72.97534164632715</v>
       </c>
       <c r="H19" t="n">
-        <v>59.38786976116711</v>
+        <v>59.38786976116698</v>
       </c>
       <c r="I19" t="n">
-        <v>31.60985935892532</v>
+        <v>31.60985935892519</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>38.68876276053822</v>
+        <v>38.68876276053809</v>
       </c>
       <c r="S19" t="n">
-        <v>112.7136760890196</v>
+        <v>112.7136760890195</v>
       </c>
       <c r="T19" t="n">
-        <v>129.685113683557</v>
+        <v>129.6851136835569</v>
       </c>
       <c r="U19" t="n">
-        <v>192.2407892982196</v>
+        <v>192.2407892982195</v>
       </c>
       <c r="V19" t="n">
-        <v>158.1134838994333</v>
+        <v>158.1134838994332</v>
       </c>
       <c r="W19" t="n">
-        <v>192.4988389121963</v>
+        <v>192.4988389121962</v>
       </c>
       <c r="X19" t="n">
-        <v>131.6854959646424</v>
+        <v>131.6854959646423</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.5604939277001</v>
+        <v>124.5604939277</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.7096822390859</v>
+        <v>288.7096822390857</v>
       </c>
       <c r="C20" t="n">
-        <v>271.2487323466128</v>
+        <v>271.2487323466127</v>
       </c>
       <c r="D20" t="n">
-        <v>260.6588821962882</v>
+        <v>260.6588821962881</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9062106478671</v>
+        <v>287.9062106478669</v>
       </c>
       <c r="F20" t="n">
-        <v>312.8518863173167</v>
+        <v>312.8518863173166</v>
       </c>
       <c r="G20" t="n">
-        <v>319.0682473259366</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H20" t="n">
-        <v>222.8140927463261</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I20" t="n">
-        <v>31.23795333591482</v>
+        <v>31.2379533359147</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.62799785888544</v>
+        <v>64.62799785888724</v>
       </c>
       <c r="T20" t="n">
-        <v>119.3959672168082</v>
+        <v>119.3959672168081</v>
       </c>
       <c r="U20" t="n">
-        <v>157.1446670222575</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V20" t="n">
-        <v>233.7280990457402</v>
+        <v>233.7280990457401</v>
       </c>
       <c r="W20" t="n">
-        <v>255.2168092930183</v>
+        <v>255.2168092930182</v>
       </c>
       <c r="X20" t="n">
-        <v>275.7069412540743</v>
+        <v>275.7069412540742</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.2137792316589</v>
+        <v>292.2137792316587</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.80782075754259</v>
+        <v>85.80782075754246</v>
       </c>
       <c r="C22" t="n">
-        <v>73.22266167423312</v>
+        <v>73.222661674233</v>
       </c>
       <c r="D22" t="n">
-        <v>54.59131359381765</v>
+        <v>54.59131359381752</v>
       </c>
       <c r="E22" t="n">
-        <v>52.40980322217446</v>
+        <v>52.40980322217433</v>
       </c>
       <c r="F22" t="n">
-        <v>51.39688859853653</v>
+        <v>51.39688859853641</v>
       </c>
       <c r="G22" t="n">
-        <v>72.97534164632728</v>
+        <v>72.97534164632715</v>
       </c>
       <c r="H22" t="n">
-        <v>59.38786976116711</v>
+        <v>59.38786976116698</v>
       </c>
       <c r="I22" t="n">
-        <v>31.60985935892532</v>
+        <v>31.60985935892519</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.68876276053822</v>
+        <v>38.68876276053809</v>
       </c>
       <c r="S22" t="n">
-        <v>112.7136760890196</v>
+        <v>112.7136760890195</v>
       </c>
       <c r="T22" t="n">
-        <v>129.685113683557</v>
+        <v>129.6851136835569</v>
       </c>
       <c r="U22" t="n">
-        <v>192.2407892982196</v>
+        <v>192.2407892982195</v>
       </c>
       <c r="V22" t="n">
-        <v>158.1134838994333</v>
+        <v>158.1134838994332</v>
       </c>
       <c r="W22" t="n">
-        <v>192.4988389121963</v>
+        <v>192.4988389121962</v>
       </c>
       <c r="X22" t="n">
-        <v>131.6854959646424</v>
+        <v>131.6854959646423</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.5604939277001</v>
+        <v>124.5604939277</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.7096822390859</v>
+        <v>288.7096822390857</v>
       </c>
       <c r="C23" t="n">
-        <v>271.2487323466128</v>
+        <v>271.2487323466127</v>
       </c>
       <c r="D23" t="n">
-        <v>260.6588821962882</v>
+        <v>260.6588821962881</v>
       </c>
       <c r="E23" t="n">
-        <v>287.9062106478671</v>
+        <v>287.9062106478669</v>
       </c>
       <c r="F23" t="n">
-        <v>312.8518863173167</v>
+        <v>312.8518863173166</v>
       </c>
       <c r="G23" t="n">
-        <v>319.0682473259366</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H23" t="n">
-        <v>222.8140927463261</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I23" t="n">
-        <v>31.23795333591482</v>
+        <v>31.2379533359147</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.62799785888544</v>
+        <v>64.62799785888515</v>
       </c>
       <c r="T23" t="n">
-        <v>119.3959672168082</v>
+        <v>119.3959672168081</v>
       </c>
       <c r="U23" t="n">
-        <v>157.1446670222569</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V23" t="n">
-        <v>233.7280990457402</v>
+        <v>233.7280990457401</v>
       </c>
       <c r="W23" t="n">
-        <v>255.2168092930183</v>
+        <v>255.2168092930182</v>
       </c>
       <c r="X23" t="n">
-        <v>275.7069412540743</v>
+        <v>275.7069412540742</v>
       </c>
       <c r="Y23" t="n">
-        <v>292.2137792316589</v>
+        <v>292.2137792316587</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.80782075754259</v>
+        <v>85.80782075754246</v>
       </c>
       <c r="C25" t="n">
-        <v>73.22266167423312</v>
+        <v>73.222661674233</v>
       </c>
       <c r="D25" t="n">
-        <v>54.59131359381765</v>
+        <v>54.59131359381752</v>
       </c>
       <c r="E25" t="n">
-        <v>52.40980322217446</v>
+        <v>52.40980322217433</v>
       </c>
       <c r="F25" t="n">
-        <v>51.39688859853653</v>
+        <v>51.39688859853641</v>
       </c>
       <c r="G25" t="n">
-        <v>72.97534164632728</v>
+        <v>72.97534164632715</v>
       </c>
       <c r="H25" t="n">
-        <v>59.38786976116711</v>
+        <v>59.38786976116698</v>
       </c>
       <c r="I25" t="n">
-        <v>31.60985935892532</v>
+        <v>31.60985935892519</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.68876276053822</v>
+        <v>38.68876276053809</v>
       </c>
       <c r="S25" t="n">
-        <v>112.7136760890196</v>
+        <v>112.7136760890195</v>
       </c>
       <c r="T25" t="n">
-        <v>129.685113683557</v>
+        <v>129.6851136835569</v>
       </c>
       <c r="U25" t="n">
-        <v>192.2407892982196</v>
+        <v>192.2407892982195</v>
       </c>
       <c r="V25" t="n">
-        <v>158.1134838994333</v>
+        <v>158.1134838994332</v>
       </c>
       <c r="W25" t="n">
-        <v>192.4988389121963</v>
+        <v>192.4988389121962</v>
       </c>
       <c r="X25" t="n">
-        <v>131.6854959646424</v>
+        <v>131.6854959646423</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.5604939277001</v>
+        <v>124.5604939277</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>225.8230740502262</v>
       </c>
       <c r="I26" t="n">
-        <v>34.24693463981488</v>
+        <v>34.24693463981492</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>22.50225960428384</v>
+        <v>67.63697916278539</v>
       </c>
       <c r="T26" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U26" t="n">
-        <v>160.1536483261575</v>
+        <v>115.0189287676558</v>
       </c>
       <c r="V26" t="n">
         <v>236.7370803496403</v>
@@ -2623,7 +2623,7 @@
         <v>278.7159225579744</v>
       </c>
       <c r="Y26" t="n">
-        <v>295.2227605355589</v>
+        <v>295.222760535559</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>88.81680206144264</v>
+        <v>88.81680206144269</v>
       </c>
       <c r="C28" t="n">
-        <v>76.23164297813318</v>
+        <v>76.23164297813322</v>
       </c>
       <c r="D28" t="n">
-        <v>57.6002948977177</v>
+        <v>57.60029489771775</v>
       </c>
       <c r="E28" t="n">
-        <v>55.41878452607452</v>
+        <v>55.41878452607456</v>
       </c>
       <c r="F28" t="n">
-        <v>54.40586990243659</v>
+        <v>54.40586990243663</v>
       </c>
       <c r="G28" t="n">
-        <v>75.98432295022735</v>
+        <v>75.98432295022739</v>
       </c>
       <c r="H28" t="n">
-        <v>62.39685106506715</v>
+        <v>62.3968510650672</v>
       </c>
       <c r="I28" t="n">
-        <v>34.61884066282538</v>
+        <v>34.61884066282542</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.69774406443827</v>
+        <v>41.69774406443831</v>
       </c>
       <c r="S28" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T28" t="n">
-        <v>132.694094987457</v>
+        <v>132.6940949874571</v>
       </c>
       <c r="U28" t="n">
-        <v>195.2497706021201</v>
+        <v>195.2497706021187</v>
       </c>
       <c r="V28" t="n">
-        <v>161.1224652033333</v>
+        <v>161.1224652033334</v>
       </c>
       <c r="W28" t="n">
-        <v>195.5078202160963</v>
+        <v>195.5078202160964</v>
       </c>
       <c r="X28" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y28" t="n">
-        <v>127.5694752316001</v>
+        <v>127.5694752316002</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>291.718663542986</v>
       </c>
       <c r="C29" t="n">
-        <v>274.257713650513</v>
+        <v>274.2577136505129</v>
       </c>
       <c r="D29" t="n">
         <v>263.6678635001883</v>
@@ -2809,10 +2809,10 @@
         <v>322.0772286298367</v>
       </c>
       <c r="H29" t="n">
-        <v>225.8230740502262</v>
+        <v>180.6883544917245</v>
       </c>
       <c r="I29" t="n">
-        <v>34.24693463981494</v>
+        <v>34.24693463981492</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>22.50225960428384</v>
+        <v>67.63697916278539</v>
       </c>
       <c r="T29" t="n">
-        <v>122.4049485207084</v>
+        <v>122.4049485207083</v>
       </c>
       <c r="U29" t="n">
         <v>160.1536483261576</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>88.8168020614427</v>
+        <v>88.81680206144269</v>
       </c>
       <c r="C31" t="n">
-        <v>76.23164297813324</v>
+        <v>76.23164297813322</v>
       </c>
       <c r="D31" t="n">
-        <v>57.60029489771776</v>
+        <v>57.60029489771775</v>
       </c>
       <c r="E31" t="n">
-        <v>55.41878452607457</v>
+        <v>55.41878452607456</v>
       </c>
       <c r="F31" t="n">
-        <v>54.40586990243665</v>
+        <v>54.40586990243663</v>
       </c>
       <c r="G31" t="n">
-        <v>75.98432295022741</v>
+        <v>75.98432295022739</v>
       </c>
       <c r="H31" t="n">
-        <v>62.39685106506721</v>
+        <v>62.3968510650672</v>
       </c>
       <c r="I31" t="n">
-        <v>34.61884066282543</v>
+        <v>34.61884066282542</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.69774406443833</v>
+        <v>41.69774406443786</v>
       </c>
       <c r="S31" t="n">
         <v>115.7226573929197</v>
@@ -3006,7 +3006,7 @@
         <v>132.6940949874571</v>
       </c>
       <c r="U31" t="n">
-        <v>195.2497706021194</v>
+        <v>195.2497706021198</v>
       </c>
       <c r="V31" t="n">
         <v>161.1224652033334</v>
@@ -3015,7 +3015,7 @@
         <v>195.5078202160964</v>
       </c>
       <c r="X31" t="n">
-        <v>134.6944772685426</v>
+        <v>134.6944772685425</v>
       </c>
       <c r="Y31" t="n">
         <v>127.5694752316002</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.7096822390858</v>
+        <v>288.7096822390859</v>
       </c>
       <c r="C32" t="n">
         <v>271.2487323466128</v>
@@ -3037,19 +3037,19 @@
         <v>260.6588821962882</v>
       </c>
       <c r="E32" t="n">
-        <v>287.906210647867</v>
+        <v>287.9062106478671</v>
       </c>
       <c r="F32" t="n">
         <v>312.8518863173167</v>
       </c>
       <c r="G32" t="n">
-        <v>319.0682473259365</v>
+        <v>319.0682473259366</v>
       </c>
       <c r="H32" t="n">
-        <v>222.814092746326</v>
+        <v>222.8140927463261</v>
       </c>
       <c r="I32" t="n">
-        <v>31.23795333591475</v>
+        <v>31.23795333591482</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>119.3959672168082</v>
       </c>
       <c r="U32" t="n">
-        <v>157.1446670222583</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V32" t="n">
-        <v>233.7280990457401</v>
+        <v>233.7280990457402</v>
       </c>
       <c r="W32" t="n">
-        <v>255.2168092930182</v>
+        <v>255.2168092930183</v>
       </c>
       <c r="X32" t="n">
         <v>275.7069412540743</v>
       </c>
       <c r="Y32" t="n">
-        <v>292.2137792316588</v>
+        <v>292.2137792316589</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.80782075754252</v>
+        <v>85.80782075754259</v>
       </c>
       <c r="C34" t="n">
-        <v>73.22266167423305</v>
+        <v>73.22266167423312</v>
       </c>
       <c r="D34" t="n">
-        <v>54.59131359381757</v>
+        <v>54.59131359381765</v>
       </c>
       <c r="E34" t="n">
-        <v>52.40980322217439</v>
+        <v>52.40980322217446</v>
       </c>
       <c r="F34" t="n">
-        <v>51.39688859853646</v>
+        <v>51.39688859853653</v>
       </c>
       <c r="G34" t="n">
-        <v>72.97534164632721</v>
+        <v>72.97534164632728</v>
       </c>
       <c r="H34" t="n">
-        <v>59.38786976116704</v>
+        <v>59.38786976116711</v>
       </c>
       <c r="I34" t="n">
-        <v>31.60985935892525</v>
+        <v>31.60985935892532</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>38.68876276053815</v>
+        <v>38.68876276053822</v>
       </c>
       <c r="S34" t="n">
         <v>112.7136760890196</v>
       </c>
       <c r="T34" t="n">
-        <v>129.6851136835569</v>
+        <v>129.685113683557</v>
       </c>
       <c r="U34" t="n">
         <v>192.2407892982196</v>
       </c>
       <c r="V34" t="n">
-        <v>158.1134838994332</v>
+        <v>158.1134838994333</v>
       </c>
       <c r="W34" t="n">
-        <v>192.4988389121962</v>
+        <v>192.4988389121963</v>
       </c>
       <c r="X34" t="n">
         <v>131.6854959646424</v>
       </c>
       <c r="Y34" t="n">
-        <v>124.5604939277</v>
+        <v>124.5604939277001</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>312.8518863173168</v>
       </c>
       <c r="G35" t="n">
-        <v>319.0682473259368</v>
+        <v>319.0682473259366</v>
       </c>
       <c r="H35" t="n">
         <v>222.8140927463261</v>
       </c>
       <c r="I35" t="n">
-        <v>31.23795333591485</v>
+        <v>31.23795333591488</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.627997858885</v>
+        <v>64.62799785888409</v>
       </c>
       <c r="T35" t="n">
         <v>119.3959672168083</v>
       </c>
       <c r="U35" t="n">
-        <v>157.1446670222569</v>
+        <v>157.1446670222575</v>
       </c>
       <c r="V35" t="n">
         <v>233.7280990457402</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85.80782075754261</v>
+        <v>85.80782075754264</v>
       </c>
       <c r="C37" t="n">
-        <v>73.22266167423315</v>
+        <v>73.22266167423318</v>
       </c>
       <c r="D37" t="n">
-        <v>54.59131359381767</v>
+        <v>54.5913135938177</v>
       </c>
       <c r="E37" t="n">
-        <v>52.40980322217449</v>
+        <v>52.40980322217452</v>
       </c>
       <c r="F37" t="n">
-        <v>51.39688859853656</v>
+        <v>51.39688859853659</v>
       </c>
       <c r="G37" t="n">
-        <v>72.97534164632731</v>
+        <v>72.97534164632734</v>
       </c>
       <c r="H37" t="n">
-        <v>59.38786976116714</v>
+        <v>59.38786976116717</v>
       </c>
       <c r="I37" t="n">
-        <v>31.60985935892534</v>
+        <v>31.60985935892537</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>38.68876276053825</v>
+        <v>38.68876276053827</v>
       </c>
       <c r="S37" t="n">
         <v>112.7136760890197</v>
@@ -3505,16 +3505,16 @@
         <v>288.7096822390859</v>
       </c>
       <c r="C38" t="n">
-        <v>271.2487323466128</v>
+        <v>271.2487323466129</v>
       </c>
       <c r="D38" t="n">
-        <v>260.6588821962882</v>
+        <v>260.6588821962883</v>
       </c>
       <c r="E38" t="n">
         <v>287.9062106478671</v>
       </c>
       <c r="F38" t="n">
-        <v>312.8518863173167</v>
+        <v>312.8518863173168</v>
       </c>
       <c r="G38" t="n">
         <v>319.0682473259366</v>
@@ -3523,7 +3523,7 @@
         <v>222.8140927463261</v>
       </c>
       <c r="I38" t="n">
-        <v>31.23795333591478</v>
+        <v>31.23795333591491</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.62799785888524</v>
+        <v>64.62799785888534</v>
       </c>
       <c r="T38" t="n">
-        <v>119.3959672168082</v>
+        <v>119.3959672168083</v>
       </c>
       <c r="U38" t="n">
-        <v>157.1446670222569</v>
+        <v>157.1446670222565</v>
       </c>
       <c r="V38" t="n">
         <v>233.7280990457402</v>
@@ -3568,10 +3568,10 @@
         <v>255.2168092930183</v>
       </c>
       <c r="X38" t="n">
-        <v>275.7069412540743</v>
+        <v>275.7069412540744</v>
       </c>
       <c r="Y38" t="n">
-        <v>292.2137792316588</v>
+        <v>292.2137792316589</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.80782075754254</v>
+        <v>85.80782075754264</v>
       </c>
       <c r="C40" t="n">
-        <v>73.22266167423308</v>
+        <v>73.22266167423318</v>
       </c>
       <c r="D40" t="n">
-        <v>54.5913135938176</v>
+        <v>54.5913135938177</v>
       </c>
       <c r="E40" t="n">
-        <v>52.40980322217442</v>
+        <v>52.40980322217452</v>
       </c>
       <c r="F40" t="n">
-        <v>51.39688859853649</v>
+        <v>51.39688859853659</v>
       </c>
       <c r="G40" t="n">
-        <v>72.97534164632724</v>
+        <v>72.97534164632734</v>
       </c>
       <c r="H40" t="n">
-        <v>59.38786976116707</v>
+        <v>59.38786976116717</v>
       </c>
       <c r="I40" t="n">
-        <v>31.60985935892527</v>
+        <v>31.60985935892537</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>38.68876276053818</v>
+        <v>38.68876276053827</v>
       </c>
       <c r="S40" t="n">
-        <v>112.7136760890196</v>
+        <v>112.7136760890197</v>
       </c>
       <c r="T40" t="n">
-        <v>129.6851136835569</v>
+        <v>129.685113683557</v>
       </c>
       <c r="U40" t="n">
-        <v>192.2407892982196</v>
+        <v>192.2407892982197</v>
       </c>
       <c r="V40" t="n">
-        <v>158.1134838994332</v>
+        <v>158.1134838994333</v>
       </c>
       <c r="W40" t="n">
-        <v>192.4988389121962</v>
+        <v>192.4988389121963</v>
       </c>
       <c r="X40" t="n">
-        <v>131.6854959646424</v>
+        <v>131.6854959646425</v>
       </c>
       <c r="Y40" t="n">
-        <v>124.5604939277</v>
+        <v>124.5604939277001</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>225.8230740502262</v>
       </c>
       <c r="I41" t="n">
-        <v>34.2469346398149</v>
+        <v>34.24693463981492</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>22.50225960428384</v>
+        <v>67.63697916278539</v>
       </c>
       <c r="T41" t="n">
-        <v>122.4049485207083</v>
+        <v>77.27022896220684</v>
       </c>
       <c r="U41" t="n">
         <v>160.1536483261576</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>88.81680206144266</v>
+        <v>88.81680206144269</v>
       </c>
       <c r="C43" t="n">
-        <v>76.23164297813319</v>
+        <v>76.23164297813322</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60029489771772</v>
+        <v>57.60029489771775</v>
       </c>
       <c r="E43" t="n">
-        <v>55.41878452607453</v>
+        <v>55.41878452607456</v>
       </c>
       <c r="F43" t="n">
-        <v>54.40586990243661</v>
+        <v>54.40586990243663</v>
       </c>
       <c r="G43" t="n">
-        <v>75.98432295022737</v>
+        <v>75.98432295022738</v>
       </c>
       <c r="H43" t="n">
-        <v>62.39685106506717</v>
+        <v>62.39685106506721</v>
       </c>
       <c r="I43" t="n">
-        <v>34.61884066282539</v>
+        <v>34.6188406628251</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.69774406443828</v>
+        <v>41.69774406443832</v>
       </c>
       <c r="S43" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T43" t="n">
-        <v>132.694094987457</v>
+        <v>132.6940949874571</v>
       </c>
       <c r="U43" t="n">
-        <v>195.2497706021198</v>
+        <v>195.2497706021197</v>
       </c>
       <c r="V43" t="n">
         <v>161.1224652033334</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>291.7186635429859</v>
+        <v>291.718663542986</v>
       </c>
       <c r="C44" t="n">
         <v>274.2577136505129</v>
@@ -3985,19 +3985,19 @@
         <v>263.6678635001883</v>
       </c>
       <c r="E44" t="n">
-        <v>290.9151919517671</v>
+        <v>290.9151919517672</v>
       </c>
       <c r="F44" t="n">
         <v>315.8608676212168</v>
       </c>
       <c r="G44" t="n">
-        <v>276.9425090713365</v>
+        <v>322.0772286298367</v>
       </c>
       <c r="H44" t="n">
-        <v>225.8230740502261</v>
+        <v>225.8230740502262</v>
       </c>
       <c r="I44" t="n">
-        <v>34.24693463981484</v>
+        <v>34.24693463981492</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.63697916278531</v>
+        <v>22.50225960428384</v>
       </c>
       <c r="T44" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U44" t="n">
-        <v>160.1536483261575</v>
+        <v>160.1536483261576</v>
       </c>
       <c r="V44" t="n">
-        <v>236.7370803496402</v>
+        <v>236.7370803496403</v>
       </c>
       <c r="W44" t="n">
-        <v>258.2257905969183</v>
+        <v>258.2257905969184</v>
       </c>
       <c r="X44" t="n">
         <v>278.7159225579744</v>
       </c>
       <c r="Y44" t="n">
-        <v>295.2227605355589</v>
+        <v>295.222760535559</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>88.8168020614426</v>
+        <v>88.81680206144269</v>
       </c>
       <c r="C46" t="n">
-        <v>76.23164297813314</v>
+        <v>76.23164297813322</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60029489771766</v>
+        <v>57.60029489771775</v>
       </c>
       <c r="E46" t="n">
-        <v>55.41878452607448</v>
+        <v>55.41878452607456</v>
       </c>
       <c r="F46" t="n">
-        <v>54.4058699024382</v>
+        <v>54.40586990243663</v>
       </c>
       <c r="G46" t="n">
-        <v>75.98432295022729</v>
+        <v>75.98432295022739</v>
       </c>
       <c r="H46" t="n">
-        <v>62.39685106506712</v>
+        <v>62.3968510650672</v>
       </c>
       <c r="I46" t="n">
-        <v>34.61884066282533</v>
+        <v>34.61884066282492</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.69774406443823</v>
+        <v>41.69774406443831</v>
       </c>
       <c r="S46" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T46" t="n">
-        <v>132.694094987457</v>
+        <v>132.6940949874571</v>
       </c>
       <c r="U46" t="n">
-        <v>195.2497706021197</v>
+        <v>195.2497706021198</v>
       </c>
       <c r="V46" t="n">
-        <v>161.1224652033333</v>
+        <v>161.1224652033334</v>
       </c>
       <c r="W46" t="n">
-        <v>195.5078202160963</v>
+        <v>195.5078202160964</v>
       </c>
       <c r="X46" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y46" t="n">
-        <v>127.5694752316001</v>
+        <v>127.5694752316002</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C2" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D2" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4363,19 +4363,19 @@
         <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>266.3558523848238</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="W2" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X2" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y2" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>525.9467038763287</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>525.9467038763287</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>525.9467038763287</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>318.0952036707959</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.334904905842</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
         <v>19.28114311021272</v>
@@ -4509,31 +4509,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.0024326625565</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C5" t="n">
-        <v>348.0024326625565</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D5" t="n">
-        <v>348.0024326625565</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E5" t="n">
-        <v>104.5536560184564</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F5" t="n">
-        <v>97.60815526925295</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G5" t="n">
-        <v>82.15084464790441</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V5" t="n">
-        <v>348.0024326625565</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W5" t="n">
-        <v>348.0024326625565</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X5" t="n">
-        <v>348.0024326625565</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.0024326625565</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279.9389693285341</v>
+        <v>423.5187596043535</v>
       </c>
       <c r="C6" t="n">
-        <v>279.9389693285341</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D6" t="n">
-        <v>279.9389693285341</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E6" t="n">
-        <v>279.9389693285341</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>448.1543063486022</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X6" t="n">
-        <v>448.1543063486022</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y6" t="n">
-        <v>448.1543063486022</v>
+        <v>591.7340966244215</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.6530896684844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6530896684844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>122.6530896684844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>122.6530896684844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
         <v>46.80844297864461</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="W8" t="n">
-        <v>122.6530896684844</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="X8" t="n">
-        <v>122.6530896684844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.6530896684844</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>492.3847606029253</v>
+        <v>176.5264424227252</v>
       </c>
       <c r="C9" t="n">
-        <v>492.3847606029253</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D9" t="n">
-        <v>492.3847606029253</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E9" t="n">
-        <v>333.1473055974698</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F9" t="n">
-        <v>272.1352367728036</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G9" t="n">
         <v>133.4044113554191</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>735.8335372470253</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>492.3847606029253</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X9" t="n">
-        <v>492.3847606029253</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y9" t="n">
-        <v>492.3847606029253</v>
+        <v>176.5264424227252</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5026,7 +5026,7 @@
         <v>1225.276648886032</v>
       </c>
       <c r="E11" t="n">
-        <v>931.4229196418228</v>
+        <v>931.4229196418232</v>
       </c>
       <c r="F11" t="n">
         <v>657.9621640229191</v>
@@ -5041,10 +5041,10 @@
         <v>69.93465157859804</v>
       </c>
       <c r="J11" t="n">
-        <v>243.8279252593009</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K11" t="n">
-        <v>625.1936695733935</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L11" t="n">
         <v>1150.588225603152</v>
@@ -5059,7 +5059,7 @@
         <v>2865.989524423015</v>
       </c>
       <c r="P11" t="n">
-        <v>3270.319423338377</v>
+        <v>3270.319423338378</v>
       </c>
       <c r="Q11" t="n">
         <v>3496.732578929902</v>
@@ -5071,22 +5071,22 @@
         <v>3428.412397957391</v>
       </c>
       <c r="T11" t="n">
-        <v>3304.771035815261</v>
+        <v>3304.771035815262</v>
       </c>
       <c r="U11" t="n">
         <v>3142.999673869648</v>
       </c>
       <c r="V11" t="n">
-        <v>2903.871309880112</v>
+        <v>2903.871309880113</v>
       </c>
       <c r="W11" t="n">
-        <v>2643.037177964033</v>
+        <v>2643.037177964034</v>
       </c>
       <c r="X11" t="n">
-        <v>2361.505943056988</v>
+        <v>2361.505943056989</v>
       </c>
       <c r="Y11" t="n">
-        <v>2063.301134435211</v>
+        <v>2063.301134435212</v>
       </c>
     </row>
     <row r="12">
@@ -5126,16 +5126,16 @@
         <v>494.227791541764</v>
       </c>
       <c r="L12" t="n">
-        <v>951.3991813302019</v>
+        <v>707.245357405202</v>
       </c>
       <c r="M12" t="n">
-        <v>1568.389761942181</v>
+        <v>863.1879249046815</v>
       </c>
       <c r="N12" t="n">
-        <v>2217.417260697646</v>
+        <v>1512.215423660146</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.811249909872</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P12" t="n">
         <v>2445.748972877461</v>
@@ -5190,7 +5190,7 @@
         <v>244.6821411524567</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9302997885904</v>
+        <v>167.9302997885905</v>
       </c>
       <c r="H13" t="n">
         <v>104.9031775006439</v>
@@ -5199,13 +5199,13 @@
         <v>69.93465157859804</v>
       </c>
       <c r="J13" t="n">
-        <v>137.010629395941</v>
+        <v>137.0106293959408</v>
       </c>
       <c r="K13" t="n">
-        <v>319.1086914830889</v>
+        <v>319.1086914830888</v>
       </c>
       <c r="L13" t="n">
-        <v>582.4595660889146</v>
+        <v>582.4595660889145</v>
       </c>
       <c r="M13" t="n">
         <v>865.6171716594312</v>
@@ -5223,13 +5223,13 @@
         <v>1695.926483912368</v>
       </c>
       <c r="R13" t="n">
-        <v>1653.807550513945</v>
+        <v>1653.807550513946</v>
       </c>
       <c r="S13" t="n">
         <v>1536.915977389784</v>
       </c>
       <c r="T13" t="n">
-        <v>1402.881538008514</v>
+        <v>1402.881538008515</v>
       </c>
       <c r="U13" t="n">
         <v>1205.659547501323</v>
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1768.635817725125</v>
+        <v>1814.226443541793</v>
       </c>
       <c r="C14" t="n">
-        <v>1491.607824138748</v>
+        <v>1537.198449955416</v>
       </c>
       <c r="D14" t="n">
-        <v>1225.276648886032</v>
+        <v>1270.867274702701</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4229196418232</v>
+        <v>977.0135454584916</v>
       </c>
       <c r="F14" t="n">
-        <v>612.3715382062506</v>
+        <v>657.9621640229191</v>
       </c>
       <c r="G14" t="n">
-        <v>287.0410042367187</v>
+        <v>332.631630053387</v>
       </c>
       <c r="H14" t="n">
-        <v>69.93465157859804</v>
+        <v>104.5275148511383</v>
       </c>
       <c r="I14" t="n">
         <v>69.93465157859804</v>
       </c>
       <c r="J14" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K14" t="n">
-        <v>625.1936695733939</v>
+        <v>625.1936695733935</v>
       </c>
       <c r="L14" t="n">
-        <v>1150.588225603152</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M14" t="n">
-        <v>1751.797447352348</v>
+        <v>1751.797447352347</v>
       </c>
       <c r="N14" t="n">
         <v>2348.102865308523</v>
@@ -5296,7 +5296,7 @@
         <v>2865.989524423015</v>
       </c>
       <c r="P14" t="n">
-        <v>3270.319423338378</v>
+        <v>3270.319423338377</v>
       </c>
       <c r="Q14" t="n">
         <v>3496.732578929902</v>
@@ -5308,22 +5308,22 @@
         <v>3428.412397957391</v>
       </c>
       <c r="T14" t="n">
-        <v>3304.771035815262</v>
+        <v>3304.771035815261</v>
       </c>
       <c r="U14" t="n">
-        <v>3142.999673869648</v>
+        <v>3188.590299686316</v>
       </c>
       <c r="V14" t="n">
-        <v>2903.871309880113</v>
+        <v>2949.461935696781</v>
       </c>
       <c r="W14" t="n">
-        <v>2643.037177964034</v>
+        <v>2688.627803780702</v>
       </c>
       <c r="X14" t="n">
-        <v>2361.505943056989</v>
+        <v>2407.096568873657</v>
       </c>
       <c r="Y14" t="n">
-        <v>2063.301134435212</v>
+        <v>2108.89176025188</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>494.227791541764</v>
       </c>
       <c r="L15" t="n">
-        <v>769.4520001047305</v>
+        <v>978.4044805826622</v>
       </c>
       <c r="M15" t="n">
-        <v>1386.44258071671</v>
+        <v>1134.347048082142</v>
       </c>
       <c r="N15" t="n">
-        <v>2035.470079472174</v>
+        <v>1512.215423660146</v>
       </c>
       <c r="O15" t="n">
-        <v>2562.787764768363</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P15" t="n">
-        <v>2653.725487735952</v>
+        <v>2445.748972877461</v>
       </c>
       <c r="Q15" t="n">
         <v>2664.595750856579</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>490.7999111568628</v>
+        <v>490.7999111568627</v>
       </c>
       <c r="C16" t="n">
-        <v>413.7982515829909</v>
+        <v>413.7982515829908</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6161355246902</v>
+        <v>355.6161355246901</v>
       </c>
       <c r="E16" t="n">
         <v>299.637565296332</v>
       </c>
       <c r="F16" t="n">
-        <v>244.6821411524567</v>
+        <v>244.6821411524566</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9302997885905</v>
+        <v>167.9302997885906</v>
       </c>
       <c r="H16" t="n">
         <v>104.9031775006439</v>
@@ -5439,13 +5439,13 @@
         <v>137.0106293959408</v>
       </c>
       <c r="K16" t="n">
-        <v>319.1086914830887</v>
+        <v>319.1086914830888</v>
       </c>
       <c r="L16" t="n">
-        <v>582.4595660889142</v>
+        <v>582.4595660889145</v>
       </c>
       <c r="M16" t="n">
-        <v>865.6171716594309</v>
+        <v>865.6171716594311</v>
       </c>
       <c r="N16" t="n">
         <v>1149.619034811413</v>
@@ -5478,7 +5478,7 @@
         <v>845.426935966545</v>
       </c>
       <c r="X16" t="n">
-        <v>709.3719084225627</v>
+        <v>709.3719084225626</v>
       </c>
       <c r="Y16" t="n">
         <v>580.5138526330675</v>
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1792.950818160681</v>
+        <v>1792.95081816068</v>
       </c>
       <c r="C17" t="n">
-        <v>1518.962199628749</v>
+        <v>1518.962199628748</v>
       </c>
       <c r="D17" t="n">
         <v>1255.670399430478</v>
       </c>
       <c r="E17" t="n">
-        <v>964.8560452407128</v>
+        <v>964.8560452407129</v>
       </c>
       <c r="F17" t="n">
-        <v>648.8440388595848</v>
+        <v>648.844038859585</v>
       </c>
       <c r="G17" t="n">
-        <v>326.5528799444973</v>
+        <v>326.5528799444977</v>
       </c>
       <c r="H17" t="n">
-        <v>101.4881397966932</v>
+        <v>101.4881397966937</v>
       </c>
       <c r="I17" t="n">
         <v>69.93465157859804</v>
       </c>
       <c r="J17" t="n">
-        <v>243.8279252593006</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K17" t="n">
         <v>625.1936695733934</v>
@@ -5530,10 +5530,10 @@
         <v>2348.102865308523</v>
       </c>
       <c r="O17" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423015</v>
       </c>
       <c r="P17" t="n">
-        <v>3270.319423338377</v>
+        <v>3270.319423338378</v>
       </c>
       <c r="Q17" t="n">
         <v>3496.732578929902</v>
@@ -5542,25 +5542,25 @@
         <v>3496.732578929902</v>
       </c>
       <c r="S17" t="n">
-        <v>3431.451773011835</v>
+        <v>3431.451773011834</v>
       </c>
       <c r="T17" t="n">
-        <v>3310.84978592415</v>
+        <v>3310.849785924149</v>
       </c>
       <c r="U17" t="n">
-        <v>3152.117799032981</v>
+        <v>3152.11779903298</v>
       </c>
       <c r="V17" t="n">
-        <v>2916.02881009789</v>
+        <v>2916.028810097889</v>
       </c>
       <c r="W17" t="n">
         <v>2658.234053236255</v>
       </c>
       <c r="X17" t="n">
-        <v>2379.742193383655</v>
+        <v>2379.742193383654</v>
       </c>
       <c r="Y17" t="n">
-        <v>2084.576759816323</v>
+        <v>2084.576759816322</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>69.93465157859804</v>
       </c>
       <c r="J18" t="n">
-        <v>69.93465157859804</v>
+        <v>179.8109144116361</v>
       </c>
       <c r="K18" t="n">
-        <v>384.3515287087259</v>
+        <v>494.227791541764</v>
       </c>
       <c r="L18" t="n">
-        <v>868.5282177496242</v>
+        <v>978.4044805826622</v>
       </c>
       <c r="M18" t="n">
-        <v>1485.518798361604</v>
+        <v>1337.736875504799</v>
       </c>
       <c r="N18" t="n">
-        <v>2134.546297117068</v>
+        <v>1512.215423660146</v>
       </c>
       <c r="O18" t="n">
-        <v>2562.787764768363</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P18" t="n">
-        <v>2653.725487735952</v>
+        <v>2445.748972877461</v>
       </c>
       <c r="Q18" t="n">
         <v>2664.595750856579</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>469.5242857757511</v>
+        <v>469.5242857757501</v>
       </c>
       <c r="C19" t="n">
-        <v>395.5620012563237</v>
+        <v>395.5620012563228</v>
       </c>
       <c r="D19" t="n">
-        <v>340.4192602524675</v>
+        <v>340.4192602524668</v>
       </c>
       <c r="E19" t="n">
-        <v>287.4800650785539</v>
+        <v>287.4800650785533</v>
       </c>
       <c r="F19" t="n">
-        <v>235.564015989123</v>
+        <v>235.5640159891226</v>
       </c>
       <c r="G19" t="n">
-        <v>161.8515496797015</v>
+        <v>161.8515496797012</v>
       </c>
       <c r="H19" t="n">
-        <v>101.8638024461994</v>
+        <v>101.8638024461992</v>
       </c>
       <c r="I19" t="n">
         <v>69.93465157859804</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9895208868019</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K19" t="n">
-        <v>325.0664744648109</v>
+        <v>325.0664744648112</v>
       </c>
       <c r="L19" t="n">
-        <v>591.3962405614976</v>
+        <v>591.3962405614981</v>
       </c>
       <c r="M19" t="n">
-        <v>877.5327376228754</v>
+        <v>877.5327376228759</v>
       </c>
       <c r="N19" t="n">
         <v>1164.513492265719</v>
       </c>
       <c r="O19" t="n">
-        <v>1420.676226490349</v>
+        <v>1420.67622649035</v>
       </c>
       <c r="P19" t="n">
-        <v>1629.781562253193</v>
+        <v>1629.781562253194</v>
       </c>
       <c r="Q19" t="n">
-        <v>1647.296483041256</v>
+        <v>1647.296483041253</v>
       </c>
       <c r="R19" t="n">
-        <v>1608.216924697278</v>
+        <v>1608.216924697275</v>
       </c>
       <c r="S19" t="n">
-        <v>1494.364726627561</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T19" t="n">
-        <v>1363.369662300735</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U19" t="n">
-        <v>1169.187046847988</v>
+        <v>1169.187046847986</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.476457050581</v>
+        <v>1009.476457050579</v>
       </c>
       <c r="W19" t="n">
-        <v>815.0331854220998</v>
+        <v>815.0331854220984</v>
       </c>
       <c r="X19" t="n">
-        <v>682.0175329325619</v>
+        <v>682.0175329325607</v>
       </c>
       <c r="Y19" t="n">
-        <v>556.1988521975113</v>
+        <v>556.1988521975102</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1792.950818160681</v>
+        <v>1792.95081816068</v>
       </c>
       <c r="C20" t="n">
-        <v>1518.962199628749</v>
+        <v>1518.962199628748</v>
       </c>
       <c r="D20" t="n">
         <v>1255.670399430478</v>
       </c>
       <c r="E20" t="n">
-        <v>964.8560452407135</v>
+        <v>964.8560452407129</v>
       </c>
       <c r="F20" t="n">
-        <v>648.8440388595855</v>
+        <v>648.844038859585</v>
       </c>
       <c r="G20" t="n">
-        <v>326.5528799444979</v>
+        <v>326.5528799444977</v>
       </c>
       <c r="H20" t="n">
-        <v>101.4881397966938</v>
+        <v>101.4881397966937</v>
       </c>
       <c r="I20" t="n">
         <v>69.93465157859804</v>
@@ -5755,10 +5755,10 @@
         <v>243.8279252593011</v>
       </c>
       <c r="K20" t="n">
-        <v>625.1936695733937</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L20" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M20" t="n">
         <v>1751.797447352348</v>
@@ -5779,25 +5779,25 @@
         <v>3496.732578929902</v>
       </c>
       <c r="S20" t="n">
-        <v>3431.451773011836</v>
+        <v>3431.451773011834</v>
       </c>
       <c r="T20" t="n">
-        <v>3310.849785924151</v>
+        <v>3310.849785924149</v>
       </c>
       <c r="U20" t="n">
-        <v>3152.117799032982</v>
+        <v>3152.11779903298</v>
       </c>
       <c r="V20" t="n">
-        <v>2916.028810097891</v>
+        <v>2916.028810097889</v>
       </c>
       <c r="W20" t="n">
-        <v>2658.234053236256</v>
+        <v>2658.234053236255</v>
       </c>
       <c r="X20" t="n">
-        <v>2379.742193383656</v>
+        <v>2379.742193383654</v>
       </c>
       <c r="Y20" t="n">
-        <v>2084.576759816324</v>
+        <v>2084.576759816322</v>
       </c>
     </row>
     <row r="21">
@@ -5843,13 +5843,13 @@
         <v>1595.395061194642</v>
       </c>
       <c r="N21" t="n">
-        <v>2244.422559950106</v>
+        <v>1902.139119744108</v>
       </c>
       <c r="O21" t="n">
-        <v>2381.816549162333</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P21" t="n">
-        <v>2472.754272129921</v>
+        <v>2445.748972877461</v>
       </c>
       <c r="Q21" t="n">
         <v>2664.595750856579</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>469.5242857757511</v>
+        <v>469.5242857757501</v>
       </c>
       <c r="C22" t="n">
-        <v>395.5620012563237</v>
+        <v>395.5620012563228</v>
       </c>
       <c r="D22" t="n">
-        <v>340.4192602524675</v>
+        <v>340.4192602524668</v>
       </c>
       <c r="E22" t="n">
-        <v>287.4800650785539</v>
+        <v>287.4800650785533</v>
       </c>
       <c r="F22" t="n">
-        <v>235.564015989123</v>
+        <v>235.5640159891226</v>
       </c>
       <c r="G22" t="n">
-        <v>161.8515496797015</v>
+        <v>161.8515496797012</v>
       </c>
       <c r="H22" t="n">
-        <v>101.8638024461994</v>
+        <v>101.8638024461992</v>
       </c>
       <c r="I22" t="n">
         <v>69.93465157859804</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9895208868019</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K22" t="n">
-        <v>325.0664744648109</v>
+        <v>325.0664744648112</v>
       </c>
       <c r="L22" t="n">
-        <v>591.3962405614976</v>
+        <v>591.3962405614981</v>
       </c>
       <c r="M22" t="n">
-        <v>877.5327376228754</v>
+        <v>805.0716048248712</v>
       </c>
       <c r="N22" t="n">
-        <v>1164.513492265719</v>
+        <v>1092.052359467715</v>
       </c>
       <c r="O22" t="n">
-        <v>1348.215093692349</v>
+        <v>1348.215093692346</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.320429455193</v>
+        <v>1557.32042945519</v>
       </c>
       <c r="Q22" t="n">
-        <v>1647.296483041256</v>
+        <v>1647.296483041253</v>
       </c>
       <c r="R22" t="n">
-        <v>1608.216924697278</v>
+        <v>1608.216924697275</v>
       </c>
       <c r="S22" t="n">
-        <v>1494.364726627561</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T22" t="n">
-        <v>1363.369662300735</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U22" t="n">
-        <v>1169.187046847988</v>
+        <v>1169.187046847986</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.476457050581</v>
+        <v>1009.476457050579</v>
       </c>
       <c r="W22" t="n">
-        <v>815.0331854220998</v>
+        <v>815.0331854220984</v>
       </c>
       <c r="X22" t="n">
-        <v>682.0175329325619</v>
+        <v>682.0175329325607</v>
       </c>
       <c r="Y22" t="n">
-        <v>556.1988521975113</v>
+        <v>556.1988521975102</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1792.950818160681</v>
+        <v>1792.95081816068</v>
       </c>
       <c r="C23" t="n">
-        <v>1518.962199628749</v>
+        <v>1518.962199628748</v>
       </c>
       <c r="D23" t="n">
         <v>1255.670399430478</v>
       </c>
       <c r="E23" t="n">
-        <v>964.8560452407135</v>
+        <v>964.8560452407129</v>
       </c>
       <c r="F23" t="n">
-        <v>648.8440388595855</v>
+        <v>648.844038859585</v>
       </c>
       <c r="G23" t="n">
-        <v>326.5528799444979</v>
+        <v>326.5528799444977</v>
       </c>
       <c r="H23" t="n">
-        <v>101.4881397966938</v>
+        <v>101.4881397966937</v>
       </c>
       <c r="I23" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J23" t="n">
-        <v>243.8279252593009</v>
+        <v>243.8279252593008</v>
       </c>
       <c r="K23" t="n">
         <v>625.1936695733934</v>
@@ -6004,37 +6004,37 @@
         <v>2348.102865308523</v>
       </c>
       <c r="O23" t="n">
-        <v>2865.989524423015</v>
+        <v>2865.989524423013</v>
       </c>
       <c r="P23" t="n">
-        <v>3270.319423338378</v>
+        <v>3270.319423338376</v>
       </c>
       <c r="Q23" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.7325789299</v>
       </c>
       <c r="R23" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.7325789299</v>
       </c>
       <c r="S23" t="n">
-        <v>3431.451773011836</v>
+        <v>3431.451773011835</v>
       </c>
       <c r="T23" t="n">
-        <v>3310.849785924151</v>
+        <v>3310.84978592415</v>
       </c>
       <c r="U23" t="n">
-        <v>3152.117799032982</v>
+        <v>3152.117799032981</v>
       </c>
       <c r="V23" t="n">
-        <v>2916.028810097891</v>
+        <v>2916.02881009789</v>
       </c>
       <c r="W23" t="n">
-        <v>2658.234053236256</v>
+        <v>2658.234053236255</v>
       </c>
       <c r="X23" t="n">
-        <v>2379.742193383656</v>
+        <v>2379.742193383655</v>
       </c>
       <c r="Y23" t="n">
-        <v>2084.576759816324</v>
+        <v>2084.576759816322</v>
       </c>
     </row>
     <row r="24">
@@ -6062,22 +6062,22 @@
         <v>220.937241300597</v>
       </c>
       <c r="H24" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I24" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J24" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="K24" t="n">
-        <v>122.5309440662731</v>
+        <v>384.3515287087259</v>
       </c>
       <c r="L24" t="n">
-        <v>454.1738591511927</v>
+        <v>868.5282177496242</v>
       </c>
       <c r="M24" t="n">
-        <v>1071.164439763172</v>
+        <v>1485.518798361604</v>
       </c>
       <c r="N24" t="n">
         <v>1720.191938518637</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>469.5242857757511</v>
+        <v>469.5242857757501</v>
       </c>
       <c r="C25" t="n">
-        <v>395.5620012563237</v>
+        <v>395.5620012563228</v>
       </c>
       <c r="D25" t="n">
-        <v>340.4192602524675</v>
+        <v>340.4192602524668</v>
       </c>
       <c r="E25" t="n">
-        <v>287.4800650785539</v>
+        <v>287.4800650785533</v>
       </c>
       <c r="F25" t="n">
-        <v>235.564015989123</v>
+        <v>235.5640159891226</v>
       </c>
       <c r="G25" t="n">
-        <v>161.8515496797015</v>
+        <v>161.8515496797012</v>
       </c>
       <c r="H25" t="n">
-        <v>101.8638024461994</v>
+        <v>101.8638024461992</v>
       </c>
       <c r="I25" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J25" t="n">
-        <v>139.9895208868019</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K25" t="n">
-        <v>325.0664744648109</v>
+        <v>325.0664744648111</v>
       </c>
       <c r="L25" t="n">
-        <v>591.3962405614976</v>
+        <v>518.9351077634933</v>
       </c>
       <c r="M25" t="n">
-        <v>877.5327376228754</v>
+        <v>805.0716048248712</v>
       </c>
       <c r="N25" t="n">
-        <v>1092.052359467718</v>
+        <v>1092.052359467715</v>
       </c>
       <c r="O25" t="n">
-        <v>1348.215093692349</v>
+        <v>1348.215093692346</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.320429455193</v>
+        <v>1557.32042945519</v>
       </c>
       <c r="Q25" t="n">
-        <v>1647.296483041256</v>
+        <v>1647.296483041253</v>
       </c>
       <c r="R25" t="n">
-        <v>1608.216924697278</v>
+        <v>1608.216924697275</v>
       </c>
       <c r="S25" t="n">
-        <v>1494.364726627561</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T25" t="n">
-        <v>1363.369662300735</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U25" t="n">
-        <v>1169.187046847988</v>
+        <v>1169.187046847986</v>
       </c>
       <c r="V25" t="n">
-        <v>1009.476457050581</v>
+        <v>1009.476457050579</v>
       </c>
       <c r="W25" t="n">
-        <v>815.0331854220998</v>
+        <v>815.0331854220984</v>
       </c>
       <c r="X25" t="n">
-        <v>682.0175329325619</v>
+        <v>682.0175329325607</v>
       </c>
       <c r="Y25" t="n">
-        <v>556.1988521975113</v>
+        <v>556.1988521975102</v>
       </c>
     </row>
     <row r="26">
@@ -6211,28 +6211,28 @@
         <v>1270.867274702701</v>
       </c>
       <c r="E26" t="n">
-        <v>977.0135454584915</v>
+        <v>977.0135454584916</v>
       </c>
       <c r="F26" t="n">
-        <v>657.962164022919</v>
+        <v>657.9621640229191</v>
       </c>
       <c r="G26" t="n">
-        <v>332.631630053387</v>
+        <v>332.6316300533871</v>
       </c>
       <c r="H26" t="n">
-        <v>104.5275148511383</v>
+        <v>104.5275148511384</v>
       </c>
       <c r="I26" t="n">
         <v>69.93465157859804</v>
       </c>
       <c r="J26" t="n">
-        <v>243.8279252593009</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K26" t="n">
-        <v>625.1936695733934</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L26" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M26" t="n">
         <v>1751.797447352348</v>
@@ -6253,10 +6253,10 @@
         <v>3496.732578929902</v>
       </c>
       <c r="S26" t="n">
-        <v>3474.00302377406</v>
+        <v>3428.412397957391</v>
       </c>
       <c r="T26" t="n">
-        <v>3350.36166163193</v>
+        <v>3304.771035815262</v>
       </c>
       <c r="U26" t="n">
         <v>3188.590299686316</v>
@@ -6305,25 +6305,25 @@
         <v>69.93465157859804</v>
       </c>
       <c r="J27" t="n">
-        <v>179.8109144116361</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="K27" t="n">
-        <v>494.227791541764</v>
+        <v>384.3515287087259</v>
       </c>
       <c r="L27" t="n">
-        <v>978.4044805826622</v>
+        <v>868.5282177496242</v>
       </c>
       <c r="M27" t="n">
-        <v>1595.395061194642</v>
+        <v>1485.518798361604</v>
       </c>
       <c r="N27" t="n">
-        <v>1769.873609349988</v>
+        <v>1720.191938518637</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.533108956335</v>
+        <v>2247.509623814825</v>
       </c>
       <c r="P27" t="n">
-        <v>2445.748972877461</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q27" t="n">
         <v>2664.595750856579</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>490.7999111568628</v>
+        <v>490.7999111568633</v>
       </c>
       <c r="C28" t="n">
-        <v>413.7982515829908</v>
+        <v>413.7982515829913</v>
       </c>
       <c r="D28" t="n">
-        <v>355.6161355246901</v>
+        <v>355.6161355246905</v>
       </c>
       <c r="E28" t="n">
-        <v>299.637565296332</v>
+        <v>299.6375652963324</v>
       </c>
       <c r="F28" t="n">
-        <v>244.6821411524567</v>
+        <v>244.682141152457</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9302997885905</v>
+        <v>167.9302997885906</v>
       </c>
       <c r="H28" t="n">
         <v>104.9031775006439</v>
@@ -6387,13 +6387,13 @@
         <v>137.0106293959408</v>
       </c>
       <c r="K28" t="n">
-        <v>319.1086914830888</v>
+        <v>319.1086914830887</v>
       </c>
       <c r="L28" t="n">
-        <v>582.4595660889145</v>
+        <v>582.4595660889144</v>
       </c>
       <c r="M28" t="n">
-        <v>865.6171716594312</v>
+        <v>865.6171716594309</v>
       </c>
       <c r="N28" t="n">
         <v>1149.619034811413</v>
@@ -6408,13 +6408,13 @@
         <v>1695.926483912368</v>
       </c>
       <c r="R28" t="n">
-        <v>1653.807550513946</v>
+        <v>1653.807550513945</v>
       </c>
       <c r="S28" t="n">
         <v>1536.915977389784</v>
       </c>
       <c r="T28" t="n">
-        <v>1402.881538008515</v>
+        <v>1402.881538008514</v>
       </c>
       <c r="U28" t="n">
         <v>1205.659547501323</v>
@@ -6423,13 +6423,13 @@
         <v>1042.909582649471</v>
       </c>
       <c r="W28" t="n">
-        <v>845.426935966545</v>
+        <v>845.4269359665457</v>
       </c>
       <c r="X28" t="n">
-        <v>709.3719084225626</v>
+        <v>709.3719084225631</v>
       </c>
       <c r="Y28" t="n">
-        <v>580.5138526330675</v>
+        <v>580.513852633068</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1814.226443541793</v>
+        <v>1768.635817725125</v>
       </c>
       <c r="C29" t="n">
-        <v>1537.198449955416</v>
+        <v>1491.607824138748</v>
       </c>
       <c r="D29" t="n">
-        <v>1270.867274702701</v>
+        <v>1225.276648886032</v>
       </c>
       <c r="E29" t="n">
-        <v>977.0135454584916</v>
+        <v>931.4229196418232</v>
       </c>
       <c r="F29" t="n">
-        <v>657.9621640229191</v>
+        <v>612.3715382062506</v>
       </c>
       <c r="G29" t="n">
-        <v>332.6316300533871</v>
+        <v>287.0410042367187</v>
       </c>
       <c r="H29" t="n">
         <v>104.5275148511384</v>
@@ -6463,13 +6463,13 @@
         <v>69.93465157859804</v>
       </c>
       <c r="J29" t="n">
-        <v>243.8279252593009</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K29" t="n">
-        <v>625.1936695733934</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L29" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M29" t="n">
         <v>1751.797447352348</v>
@@ -6490,25 +6490,25 @@
         <v>3496.732578929902</v>
       </c>
       <c r="S29" t="n">
-        <v>3474.00302377406</v>
+        <v>3428.412397957391</v>
       </c>
       <c r="T29" t="n">
-        <v>3350.36166163193</v>
+        <v>3304.771035815262</v>
       </c>
       <c r="U29" t="n">
-        <v>3188.590299686316</v>
+        <v>3142.999673869648</v>
       </c>
       <c r="V29" t="n">
-        <v>2949.461935696781</v>
+        <v>2903.871309880113</v>
       </c>
       <c r="W29" t="n">
-        <v>2688.627803780702</v>
+        <v>2643.037177964034</v>
       </c>
       <c r="X29" t="n">
-        <v>2407.096568873657</v>
+        <v>2361.505943056989</v>
       </c>
       <c r="Y29" t="n">
-        <v>2108.89176025188</v>
+        <v>2063.301134435212</v>
       </c>
     </row>
     <row r="30">
@@ -6545,16 +6545,16 @@
         <v>179.8109144116361</v>
       </c>
       <c r="K30" t="n">
-        <v>494.227791541764</v>
+        <v>232.4072068993112</v>
       </c>
       <c r="L30" t="n">
-        <v>978.4044805826622</v>
+        <v>716.5838959402095</v>
       </c>
       <c r="M30" t="n">
-        <v>1253.111620988644</v>
+        <v>1333.574476552189</v>
       </c>
       <c r="N30" t="n">
-        <v>1902.139119744108</v>
+        <v>1512.215423660146</v>
       </c>
       <c r="O30" t="n">
         <v>2039.533108956335</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>490.799911156863</v>
+        <v>490.7999111568629</v>
       </c>
       <c r="C31" t="n">
         <v>413.798251582991</v>
       </c>
       <c r="D31" t="n">
-        <v>355.6161355246903</v>
+        <v>355.6161355246902</v>
       </c>
       <c r="E31" t="n">
         <v>299.6375652963321</v>
@@ -6621,16 +6621,16 @@
         <v>69.93465157859804</v>
       </c>
       <c r="J31" t="n">
-        <v>137.0106293959407</v>
+        <v>137.0106293959408</v>
       </c>
       <c r="K31" t="n">
-        <v>319.1086914830886</v>
+        <v>319.1086914830887</v>
       </c>
       <c r="L31" t="n">
-        <v>582.4595660889142</v>
+        <v>582.4595660889144</v>
       </c>
       <c r="M31" t="n">
-        <v>865.6171716594308</v>
+        <v>865.6171716594311</v>
       </c>
       <c r="N31" t="n">
         <v>1149.619034811413</v>
@@ -6645,13 +6645,13 @@
         <v>1695.926483912368</v>
       </c>
       <c r="R31" t="n">
-        <v>1653.807550513945</v>
+        <v>1653.807550513946</v>
       </c>
       <c r="S31" t="n">
         <v>1536.915977389784</v>
       </c>
       <c r="T31" t="n">
-        <v>1402.881538008514</v>
+        <v>1402.881538008515</v>
       </c>
       <c r="U31" t="n">
         <v>1205.659547501323</v>
@@ -6660,10 +6660,10 @@
         <v>1042.909582649471</v>
       </c>
       <c r="W31" t="n">
-        <v>845.4269359665453</v>
+        <v>845.4269359665452</v>
       </c>
       <c r="X31" t="n">
-        <v>709.3719084225629</v>
+        <v>709.3719084225628</v>
       </c>
       <c r="Y31" t="n">
         <v>580.5138526330677</v>
@@ -6685,37 +6685,37 @@
         <v>1255.670399430478</v>
       </c>
       <c r="E32" t="n">
-        <v>964.8560452407132</v>
+        <v>964.8560452407135</v>
       </c>
       <c r="F32" t="n">
-        <v>648.8440388595852</v>
+        <v>648.8440388595855</v>
       </c>
       <c r="G32" t="n">
-        <v>326.5528799444978</v>
+        <v>326.5528799444979</v>
       </c>
       <c r="H32" t="n">
-        <v>101.4881397966937</v>
+        <v>101.4881397966938</v>
       </c>
       <c r="I32" t="n">
         <v>69.93465157859804</v>
       </c>
       <c r="J32" t="n">
-        <v>243.8279252593009</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K32" t="n">
-        <v>625.1936695733935</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L32" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M32" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N32" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O32" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423015</v>
       </c>
       <c r="P32" t="n">
         <v>3270.319423338378</v>
@@ -6730,7 +6730,7 @@
         <v>3431.451773011836</v>
       </c>
       <c r="T32" t="n">
-        <v>3310.849785924152</v>
+        <v>3310.849785924151</v>
       </c>
       <c r="U32" t="n">
         <v>3152.117799032982</v>
@@ -6745,7 +6745,7 @@
         <v>2379.742193383656</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.576759816323</v>
+        <v>2084.576759816324</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>69.93465157859804</v>
       </c>
       <c r="J33" t="n">
-        <v>179.8109144116361</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="K33" t="n">
-        <v>232.4072068993112</v>
+        <v>384.3515287087259</v>
       </c>
       <c r="L33" t="n">
-        <v>716.5838959402095</v>
+        <v>868.5282177496242</v>
       </c>
       <c r="M33" t="n">
-        <v>1333.574476552189</v>
+        <v>1485.518798361604</v>
       </c>
       <c r="N33" t="n">
-        <v>1982.601975307653</v>
+        <v>1720.191938518637</v>
       </c>
       <c r="O33" t="n">
-        <v>2509.919660603842</v>
+        <v>2247.509623814825</v>
       </c>
       <c r="P33" t="n">
-        <v>2600.857383571431</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q33" t="n">
         <v>2664.595750856579</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>469.5242857757505</v>
+        <v>469.5242857757511</v>
       </c>
       <c r="C34" t="n">
-        <v>395.5620012563232</v>
+        <v>395.5620012563237</v>
       </c>
       <c r="D34" t="n">
-        <v>340.419260252467</v>
+        <v>340.4192602524675</v>
       </c>
       <c r="E34" t="n">
-        <v>287.4800650785535</v>
+        <v>287.4800650785539</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5640159891228</v>
+        <v>235.564015989123</v>
       </c>
       <c r="G34" t="n">
-        <v>161.8515496797013</v>
+        <v>161.8515496797015</v>
       </c>
       <c r="H34" t="n">
-        <v>101.8638024461993</v>
+        <v>101.8638024461994</v>
       </c>
       <c r="I34" t="n">
         <v>69.93465157859804</v>
       </c>
       <c r="J34" t="n">
-        <v>139.989520886802</v>
+        <v>139.9895208868019</v>
       </c>
       <c r="K34" t="n">
-        <v>325.0664744648111</v>
+        <v>325.0664744648109</v>
       </c>
       <c r="L34" t="n">
-        <v>591.396240561498</v>
+        <v>591.3962405614976</v>
       </c>
       <c r="M34" t="n">
-        <v>877.5327376228759</v>
+        <v>877.5327376228754</v>
       </c>
       <c r="N34" t="n">
         <v>1164.513492265719</v>
       </c>
       <c r="O34" t="n">
-        <v>1420.67622649035</v>
+        <v>1420.676226490349</v>
       </c>
       <c r="P34" t="n">
-        <v>1629.781562253194</v>
+        <v>1629.781562253193</v>
       </c>
       <c r="Q34" t="n">
-        <v>1647.296483041254</v>
+        <v>1647.296483041256</v>
       </c>
       <c r="R34" t="n">
-        <v>1608.216924697276</v>
+        <v>1608.216924697278</v>
       </c>
       <c r="S34" t="n">
-        <v>1494.364726627559</v>
+        <v>1494.364726627561</v>
       </c>
       <c r="T34" t="n">
-        <v>1363.369662300734</v>
+        <v>1363.369662300735</v>
       </c>
       <c r="U34" t="n">
-        <v>1169.187046847987</v>
+        <v>1169.187046847988</v>
       </c>
       <c r="V34" t="n">
-        <v>1009.47645705058</v>
+        <v>1009.476457050581</v>
       </c>
       <c r="W34" t="n">
-        <v>815.0331854220989</v>
+        <v>815.0331854220998</v>
       </c>
       <c r="X34" t="n">
-        <v>682.0175329325612</v>
+        <v>682.0175329325619</v>
       </c>
       <c r="Y34" t="n">
-        <v>556.1988521975106</v>
+        <v>556.1988521975113</v>
       </c>
     </row>
     <row r="35">
@@ -6925,28 +6925,28 @@
         <v>964.8560452407137</v>
       </c>
       <c r="F35" t="n">
-        <v>648.8440388595857</v>
+        <v>648.8440388595856</v>
       </c>
       <c r="G35" t="n">
         <v>326.552879944498</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4881397966938</v>
+        <v>101.4881397966939</v>
       </c>
       <c r="I35" t="n">
         <v>69.93465157859804</v>
       </c>
       <c r="J35" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K35" t="n">
-        <v>625.1936695733941</v>
+        <v>625.1936695733935</v>
       </c>
       <c r="L35" t="n">
-        <v>1150.588225603152</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M35" t="n">
-        <v>1751.797447352348</v>
+        <v>1751.797447352347</v>
       </c>
       <c r="N35" t="n">
         <v>2348.102865308523</v>
@@ -6955,7 +6955,7 @@
         <v>2865.989524423015</v>
       </c>
       <c r="P35" t="n">
-        <v>3270.319423338378</v>
+        <v>3270.319423338377</v>
       </c>
       <c r="Q35" t="n">
         <v>3496.732578929902</v>
@@ -6964,10 +6964,10 @@
         <v>3496.732578929902</v>
       </c>
       <c r="S35" t="n">
-        <v>3431.451773011836</v>
+        <v>3431.451773011837</v>
       </c>
       <c r="T35" t="n">
-        <v>3310.849785924151</v>
+        <v>3310.849785924152</v>
       </c>
       <c r="U35" t="n">
         <v>3152.117799032982</v>
@@ -7025,10 +7025,10 @@
         <v>978.4044805826622</v>
       </c>
       <c r="M36" t="n">
-        <v>1595.395061194642</v>
+        <v>1134.347048082142</v>
       </c>
       <c r="N36" t="n">
-        <v>1902.139119744108</v>
+        <v>1783.374546837606</v>
       </c>
       <c r="O36" t="n">
         <v>2039.533108956335</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>469.5242857757513</v>
+        <v>469.5242857757515</v>
       </c>
       <c r="C37" t="n">
-        <v>395.5620012563239</v>
+        <v>395.562001256324</v>
       </c>
       <c r="D37" t="n">
-        <v>340.4192602524676</v>
+        <v>340.4192602524678</v>
       </c>
       <c r="E37" t="n">
-        <v>287.480065078554</v>
+        <v>287.4800650785541</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5640159891231</v>
+        <v>235.5640159891232</v>
       </c>
       <c r="G37" t="n">
         <v>161.8515496797016</v>
@@ -7095,16 +7095,16 @@
         <v>69.93465157859804</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9895208868019</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="K37" t="n">
-        <v>325.0664744648109</v>
+        <v>255.011605156607</v>
       </c>
       <c r="L37" t="n">
-        <v>591.3962405614976</v>
+        <v>518.9351077634974</v>
       </c>
       <c r="M37" t="n">
-        <v>805.0716048248748</v>
+        <v>805.0716048248751</v>
       </c>
       <c r="N37" t="n">
         <v>1092.052359467718</v>
@@ -7134,13 +7134,13 @@
         <v>1009.476457050581</v>
       </c>
       <c r="W37" t="n">
-        <v>815.0331854221</v>
+        <v>815.0331854221002</v>
       </c>
       <c r="X37" t="n">
-        <v>682.0175329325622</v>
+        <v>682.0175329325624</v>
       </c>
       <c r="Y37" t="n">
-        <v>556.1988521975115</v>
+        <v>556.1988521975118</v>
       </c>
     </row>
     <row r="38">
@@ -7159,40 +7159,40 @@
         <v>1255.670399430478</v>
       </c>
       <c r="E38" t="n">
-        <v>964.8560452407135</v>
+        <v>964.8560452407132</v>
       </c>
       <c r="F38" t="n">
-        <v>648.8440388595855</v>
+        <v>648.8440388595857</v>
       </c>
       <c r="G38" t="n">
-        <v>326.5528799444978</v>
+        <v>326.5528799444981</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4881397966938</v>
+        <v>101.4881397966939</v>
       </c>
       <c r="I38" t="n">
         <v>69.93465157859804</v>
       </c>
       <c r="J38" t="n">
-        <v>243.8279252593003</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K38" t="n">
-        <v>625.193669573393</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L38" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M38" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N38" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O38" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423015</v>
       </c>
       <c r="P38" t="n">
-        <v>3270.319423338377</v>
+        <v>3270.319423338378</v>
       </c>
       <c r="Q38" t="n">
         <v>3496.732578929902</v>
@@ -7201,7 +7201,7 @@
         <v>3496.732578929902</v>
       </c>
       <c r="S38" t="n">
-        <v>3431.451773011835</v>
+        <v>3431.451773011836</v>
       </c>
       <c r="T38" t="n">
         <v>3310.849785924151</v>
@@ -7219,7 +7219,7 @@
         <v>2379.742193383656</v>
       </c>
       <c r="Y38" t="n">
-        <v>2084.576759816324</v>
+        <v>2084.576759816323</v>
       </c>
     </row>
     <row r="39">
@@ -7259,16 +7259,16 @@
         <v>494.227791541764</v>
       </c>
       <c r="L39" t="n">
-        <v>951.3991813302019</v>
+        <v>978.4044805826622</v>
       </c>
       <c r="M39" t="n">
-        <v>1568.389761942181</v>
+        <v>1337.736875504799</v>
       </c>
       <c r="N39" t="n">
-        <v>2217.417260697646</v>
+        <v>1512.215423660146</v>
       </c>
       <c r="O39" t="n">
-        <v>2354.811249909872</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P39" t="n">
         <v>2445.748972877461</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>469.5242857757507</v>
+        <v>469.5242857757515</v>
       </c>
       <c r="C40" t="n">
-        <v>395.5620012563234</v>
+        <v>395.562001256324</v>
       </c>
       <c r="D40" t="n">
-        <v>340.4192602524673</v>
+        <v>340.4192602524678</v>
       </c>
       <c r="E40" t="n">
-        <v>287.4800650785537</v>
+        <v>287.4800650785541</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5640159891229</v>
+        <v>235.5640159891232</v>
       </c>
       <c r="G40" t="n">
-        <v>161.8515496797014</v>
+        <v>161.8515496797016</v>
       </c>
       <c r="H40" t="n">
-        <v>101.8638024461993</v>
+        <v>101.8638024461994</v>
       </c>
       <c r="I40" t="n">
         <v>69.93465157859804</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9895208868019</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="K40" t="n">
-        <v>325.066474464811</v>
+        <v>252.6053416668107</v>
       </c>
       <c r="L40" t="n">
-        <v>591.3962405614977</v>
+        <v>518.9351077634974</v>
       </c>
       <c r="M40" t="n">
-        <v>877.5327376228755</v>
+        <v>805.0716048248751</v>
       </c>
       <c r="N40" t="n">
-        <v>1164.513492265719</v>
+        <v>1092.052359467718</v>
       </c>
       <c r="O40" t="n">
-        <v>1420.67622649035</v>
+        <v>1348.215093692349</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.320429455191</v>
+        <v>1557.320429455193</v>
       </c>
       <c r="Q40" t="n">
-        <v>1647.296483041255</v>
+        <v>1647.296483041256</v>
       </c>
       <c r="R40" t="n">
-        <v>1608.216924697277</v>
+        <v>1608.216924697278</v>
       </c>
       <c r="S40" t="n">
-        <v>1494.36472662756</v>
+        <v>1494.364726627561</v>
       </c>
       <c r="T40" t="n">
-        <v>1363.369662300735</v>
+        <v>1363.369662300736</v>
       </c>
       <c r="U40" t="n">
-        <v>1169.187046847988</v>
+        <v>1169.187046847989</v>
       </c>
       <c r="V40" t="n">
-        <v>1009.47645705058</v>
+        <v>1009.476457050581</v>
       </c>
       <c r="W40" t="n">
-        <v>815.0331854220992</v>
+        <v>815.0331854221002</v>
       </c>
       <c r="X40" t="n">
-        <v>682.0175329325614</v>
+        <v>682.0175329325624</v>
       </c>
       <c r="Y40" t="n">
-        <v>556.1988521975109</v>
+        <v>556.1988521975118</v>
       </c>
     </row>
     <row r="41">
@@ -7402,22 +7402,22 @@
         <v>657.9621640229191</v>
       </c>
       <c r="G41" t="n">
-        <v>332.631630053387</v>
+        <v>332.6316300533871</v>
       </c>
       <c r="H41" t="n">
-        <v>104.5275148511383</v>
+        <v>104.5275148511384</v>
       </c>
       <c r="I41" t="n">
         <v>69.93465157859804</v>
       </c>
       <c r="J41" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K41" t="n">
-        <v>625.1936695733939</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L41" t="n">
-        <v>1150.588225603152</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M41" t="n">
         <v>1751.797447352348</v>
@@ -7438,7 +7438,7 @@
         <v>3496.732578929902</v>
       </c>
       <c r="S41" t="n">
-        <v>3474.00302377406</v>
+        <v>3428.412397957391</v>
       </c>
       <c r="T41" t="n">
         <v>3350.36166163193</v>
@@ -7505,10 +7505,10 @@
         <v>1982.601975307653</v>
       </c>
       <c r="O42" t="n">
-        <v>2509.919660603842</v>
+        <v>2119.99596451988</v>
       </c>
       <c r="P42" t="n">
-        <v>2600.857383571431</v>
+        <v>2526.211828441007</v>
       </c>
       <c r="Q42" t="n">
         <v>2664.595750856579</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>490.7999111568627</v>
+        <v>490.7999111568626</v>
       </c>
       <c r="C43" t="n">
-        <v>413.7982515829908</v>
+        <v>413.7982515829906</v>
       </c>
       <c r="D43" t="n">
-        <v>355.61613552469</v>
+        <v>355.6161355246899</v>
       </c>
       <c r="E43" t="n">
-        <v>299.6375652963319</v>
+        <v>299.6375652963317</v>
       </c>
       <c r="F43" t="n">
-        <v>244.6821411524566</v>
+        <v>244.6821411524563</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9302997885905</v>
+        <v>167.9302997885903</v>
       </c>
       <c r="H43" t="n">
-        <v>104.9031775006439</v>
+        <v>104.9031775006436</v>
       </c>
       <c r="I43" t="n">
         <v>69.93465157859804</v>
@@ -7572,10 +7572,10 @@
         <v>137.0106293959408</v>
       </c>
       <c r="K43" t="n">
-        <v>319.1086914830888</v>
+        <v>319.1086914830887</v>
       </c>
       <c r="L43" t="n">
-        <v>582.4595660889145</v>
+        <v>582.4595660889144</v>
       </c>
       <c r="M43" t="n">
         <v>865.6171716594311</v>
@@ -7602,16 +7602,16 @@
         <v>1402.881538008514</v>
       </c>
       <c r="U43" t="n">
-        <v>1205.659547501323</v>
+        <v>1205.659547501322</v>
       </c>
       <c r="V43" t="n">
-        <v>1042.909582649471</v>
+        <v>1042.90958264947</v>
       </c>
       <c r="W43" t="n">
-        <v>845.426935966545</v>
+        <v>845.4269359665448</v>
       </c>
       <c r="X43" t="n">
-        <v>709.3719084225626</v>
+        <v>709.3719084225625</v>
       </c>
       <c r="Y43" t="n">
         <v>580.5138526330674</v>
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1768.635817725126</v>
+        <v>1814.226443541793</v>
       </c>
       <c r="C44" t="n">
-        <v>1491.607824138749</v>
+        <v>1537.198449955416</v>
       </c>
       <c r="D44" t="n">
-        <v>1225.276648886034</v>
+        <v>1270.867274702701</v>
       </c>
       <c r="E44" t="n">
-        <v>931.4229196418246</v>
+        <v>977.0135454584916</v>
       </c>
       <c r="F44" t="n">
-        <v>612.3715382062521</v>
+        <v>657.9621640229191</v>
       </c>
       <c r="G44" t="n">
-        <v>332.6316300533869</v>
+        <v>332.6316300533871</v>
       </c>
       <c r="H44" t="n">
-        <v>104.5275148511383</v>
+        <v>104.5275148511384</v>
       </c>
       <c r="I44" t="n">
         <v>69.93465157859804</v>
       </c>
       <c r="J44" t="n">
-        <v>243.8279252593009</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K44" t="n">
-        <v>625.1936695733934</v>
+        <v>625.1936695733937</v>
       </c>
       <c r="L44" t="n">
         <v>1150.588225603151</v>
@@ -7675,25 +7675,25 @@
         <v>3496.732578929902</v>
       </c>
       <c r="S44" t="n">
-        <v>3428.412397957391</v>
+        <v>3474.00302377406</v>
       </c>
       <c r="T44" t="n">
-        <v>3304.771035815262</v>
+        <v>3350.36166163193</v>
       </c>
       <c r="U44" t="n">
-        <v>3142.999673869648</v>
+        <v>3188.590299686316</v>
       </c>
       <c r="V44" t="n">
-        <v>2903.871309880113</v>
+        <v>2949.461935696781</v>
       </c>
       <c r="W44" t="n">
-        <v>2643.037177964034</v>
+        <v>2688.627803780702</v>
       </c>
       <c r="X44" t="n">
-        <v>2361.505943056989</v>
+        <v>2407.096568873657</v>
       </c>
       <c r="Y44" t="n">
-        <v>2063.301134435213</v>
+        <v>2108.89176025188</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>69.93465157859804</v>
       </c>
       <c r="J45" t="n">
-        <v>179.8109144116361</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="K45" t="n">
-        <v>494.227791541764</v>
+        <v>285.2753110638322</v>
       </c>
       <c r="L45" t="n">
-        <v>978.4044805826622</v>
+        <v>769.4520001047305</v>
       </c>
       <c r="M45" t="n">
-        <v>1595.395061194642</v>
+        <v>1386.44258071671</v>
       </c>
       <c r="N45" t="n">
-        <v>1827.493564613684</v>
+        <v>2035.470079472174</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.811249909872</v>
+        <v>2562.787764768363</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.748972877461</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q45" t="n">
         <v>2664.595750856579</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>490.799911156864</v>
+        <v>490.7999111568625</v>
       </c>
       <c r="C46" t="n">
-        <v>413.7982515829921</v>
+        <v>413.7982515829905</v>
       </c>
       <c r="D46" t="n">
-        <v>355.6161355246915</v>
+        <v>355.6161355246898</v>
       </c>
       <c r="E46" t="n">
-        <v>299.6375652963334</v>
+        <v>299.6375652963316</v>
       </c>
       <c r="F46" t="n">
-        <v>244.6821411524564</v>
+        <v>244.6821411524562</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9302997885904</v>
+        <v>167.9302997885901</v>
       </c>
       <c r="H46" t="n">
-        <v>104.9031775006438</v>
+        <v>104.9031775006434</v>
       </c>
       <c r="I46" t="n">
         <v>69.93465157859804</v>
       </c>
       <c r="J46" t="n">
-        <v>137.0106293959409</v>
+        <v>137.0106293959408</v>
       </c>
       <c r="K46" t="n">
-        <v>319.1086914830889</v>
+        <v>319.1086914830887</v>
       </c>
       <c r="L46" t="n">
-        <v>582.4595660889147</v>
+        <v>582.4595660889145</v>
       </c>
       <c r="M46" t="n">
-        <v>865.6171716594315</v>
+        <v>865.6171716594311</v>
       </c>
       <c r="N46" t="n">
-        <v>1149.619034811414</v>
+        <v>1149.619034811413</v>
       </c>
       <c r="O46" t="n">
         <v>1402.802877545183</v>
       </c>
       <c r="P46" t="n">
-        <v>1608.929321817167</v>
+        <v>1608.929321817166</v>
       </c>
       <c r="Q46" t="n">
-        <v>1695.926483912369</v>
+        <v>1695.926483912368</v>
       </c>
       <c r="R46" t="n">
-        <v>1653.807550513946</v>
+        <v>1653.807550513945</v>
       </c>
       <c r="S46" t="n">
-        <v>1536.915977389785</v>
+        <v>1536.915977389784</v>
       </c>
       <c r="T46" t="n">
-        <v>1402.881538008515</v>
+        <v>1402.881538008514</v>
       </c>
       <c r="U46" t="n">
         <v>1205.659547501323</v>
       </c>
       <c r="V46" t="n">
-        <v>1042.909582649472</v>
+        <v>1042.909582649471</v>
       </c>
       <c r="W46" t="n">
-        <v>845.4269359665459</v>
+        <v>845.426935966545</v>
       </c>
       <c r="X46" t="n">
-        <v>709.3719084225636</v>
+        <v>709.3719084225626</v>
       </c>
       <c r="Y46" t="n">
-        <v>580.5138526330686</v>
+        <v>580.5138526330672</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>343.562265250469</v>
+        <v>96.94224108380234</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9011,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>159.7772337095887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>205.4442701238966</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>15.10491126663301</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>205.4442701238966</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>293.7853317566348</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>133.6015256506264</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>182.7992076828591</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,16 +9719,16 @@
         <v>15.10491126663301</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>216.7658261560059</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>60.80261818352147</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663301</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>60.80261818352147</v>
       </c>
       <c r="O27" t="n">
-        <v>133.6015256506264</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>119.9642150570727</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>4.204443386475134</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663301</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>60.80261818352147</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>53.40212541870802</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,13 +10673,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>133.6015256506264</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>119.9642150570727</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10907,19 +10907,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>343.562265250469</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>205.4442701238966</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119846</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11153,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>53.40212541870802</v>
+        <v>128.8016760555003</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663301</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>164.3882494924839</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>58.20197501383393</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>45.13471955850218</v>
+        <v>45.13471955850173</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>10.88778491868678</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.2469346398149</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>45.13471955850225</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>45.1347195585015</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>45.1347195585018</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>45.1347195585017</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>45.13471955850156</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.264766069652978e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>45.13471955850153</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>45.1347195585015</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>45.13471955850008</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>45.13471955850156</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>656783.9881310038</v>
+        <v>656783.9881310039</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>654089.4453733615</v>
+        <v>654089.4453733612</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642833</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642834</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>821041.7698642833</v>
-      </c>
-      <c r="D2" t="n">
-        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
         <v>817449.0461874265</v>
       </c>
       <c r="F2" t="n">
-        <v>817449.0461874264</v>
+        <v>817449.0461874267</v>
       </c>
       <c r="G2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="H2" t="n">
         <v>821041.7698642834</v>
       </c>
       <c r="I2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="J2" t="n">
         <v>817449.0461874265</v>
@@ -26343,19 +26343,19 @@
         <v>817449.0461874267</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="O2" t="n">
-        <v>817449.0461874265</v>
+        <v>817449.0461874283</v>
       </c>
       <c r="P2" t="n">
-        <v>817449.0461874282</v>
+        <v>817449.0461874267</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2407.185043120057</v>
+        <v>2407.18504312016</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4814.370086240206</v>
+        <v>4814.37008624024</v>
       </c>
       <c r="M3" t="n">
         <v>157788.2115544436</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>67997.77241015558</v>
+        <v>67997.77241015549</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>320962.9529903556</v>
       </c>
       <c r="C4" t="n">
-        <v>320962.9529903556</v>
+        <v>320962.9529903555</v>
       </c>
       <c r="D4" t="n">
         <v>320962.9529903556</v>
@@ -26432,13 +26432,13 @@
         <v>134091.4277931556</v>
       </c>
       <c r="G4" t="n">
-        <v>136126.8774539776</v>
+        <v>136126.8774539777</v>
       </c>
       <c r="H4" t="n">
-        <v>136126.8774539776</v>
+        <v>136126.8774539777</v>
       </c>
       <c r="I4" t="n">
-        <v>136126.8774539776</v>
+        <v>136126.8774539777</v>
       </c>
       <c r="J4" t="n">
         <v>134091.4277931556</v>
@@ -26450,16 +26450,16 @@
         <v>136126.8774539776</v>
       </c>
       <c r="M4" t="n">
-        <v>136126.8774539776</v>
+        <v>136126.8774539775</v>
       </c>
       <c r="N4" t="n">
-        <v>136126.8774539776</v>
+        <v>136126.8774539775</v>
       </c>
       <c r="O4" t="n">
         <v>134091.4277931556</v>
       </c>
       <c r="P4" t="n">
-        <v>134091.4277931557</v>
+        <v>134091.4277931556</v>
       </c>
     </row>
     <row r="5">
@@ -26484,13 +26484,13 @@
         <v>72787.96136398587</v>
       </c>
       <c r="G5" t="n">
+        <v>73040.92341322347</v>
+      </c>
+      <c r="H5" t="n">
+        <v>73040.92341322347</v>
+      </c>
+      <c r="I5" t="n">
         <v>73040.92341322344</v>
-      </c>
-      <c r="H5" t="n">
-        <v>73040.92341322346</v>
-      </c>
-      <c r="I5" t="n">
-        <v>73040.92341322346</v>
       </c>
       <c r="J5" t="n">
         <v>72787.96136398587</v>
@@ -26502,7 +26502,7 @@
         <v>73040.92341322346</v>
       </c>
       <c r="M5" t="n">
-        <v>73040.92341322346</v>
+        <v>73040.92341322344</v>
       </c>
       <c r="N5" t="n">
         <v>73040.92341322344</v>
@@ -26511,7 +26511,7 @@
         <v>72787.96136398587</v>
       </c>
       <c r="P5" t="n">
-        <v>72787.96136398589</v>
+        <v>72787.96136398587</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>371028.1165786185</v>
+        <v>371028.1165786184</v>
       </c>
       <c r="C6" t="n">
+        <v>451797.5481101662</v>
+      </c>
+      <c r="D6" t="n">
         <v>451797.548110166</v>
       </c>
-      <c r="D6" t="n">
-        <v>451797.5481101659</v>
-      </c>
       <c r="E6" t="n">
-        <v>-93109.45310106265</v>
+        <v>-93028.61681833338</v>
       </c>
       <c r="F6" t="n">
-        <v>610479.8389383635</v>
+        <v>610560.675221093</v>
       </c>
       <c r="G6" t="n">
         <v>609466.783953962</v>
       </c>
       <c r="H6" t="n">
+        <v>611873.9689970822</v>
+      </c>
+      <c r="I6" t="n">
+        <v>611873.9689970822</v>
+      </c>
+      <c r="J6" t="n">
+        <v>477095.775168711</v>
+      </c>
+      <c r="K6" t="n">
+        <v>610560.675221093</v>
+      </c>
+      <c r="L6" t="n">
+        <v>607059.598910842</v>
+      </c>
+      <c r="M6" t="n">
+        <v>454085.7574426391</v>
+      </c>
+      <c r="N6" t="n">
         <v>611873.9689970823</v>
       </c>
-      <c r="I6" t="n">
-        <v>611873.9689970821</v>
-      </c>
-      <c r="J6" t="n">
-        <v>477014.9388859817</v>
-      </c>
-      <c r="K6" t="n">
-        <v>610479.8389383638</v>
-      </c>
-      <c r="L6" t="n">
-        <v>607059.5989108417</v>
-      </c>
-      <c r="M6" t="n">
-        <v>454085.7574426385</v>
-      </c>
-      <c r="N6" t="n">
-        <v>611873.9689970822</v>
-      </c>
       <c r="O6" t="n">
-        <v>542482.066528208</v>
+        <v>542562.9028109391</v>
       </c>
       <c r="P6" t="n">
-        <v>610479.8389383652</v>
+        <v>610560.675221093</v>
       </c>
     </row>
   </sheetData>
@@ -26700,34 +26700,34 @@
         <v>91.01517812049464</v>
       </c>
       <c r="G2" t="n">
+        <v>94.02415942439484</v>
+      </c>
+      <c r="H2" t="n">
+        <v>94.02415942439484</v>
+      </c>
+      <c r="I2" t="n">
+        <v>94.02415942439484</v>
+      </c>
+      <c r="J2" t="n">
+        <v>91.01517812049461</v>
+      </c>
+      <c r="K2" t="n">
+        <v>91.01517812049461</v>
+      </c>
+      <c r="L2" t="n">
         <v>94.02415942439471</v>
       </c>
-      <c r="H2" t="n">
-        <v>94.02415942439471</v>
-      </c>
-      <c r="I2" t="n">
-        <v>94.02415942439471</v>
-      </c>
-      <c r="J2" t="n">
-        <v>91.01517812049465</v>
-      </c>
-      <c r="K2" t="n">
-        <v>91.0151781204946</v>
-      </c>
-      <c r="L2" t="n">
-        <v>94.02415942439478</v>
-      </c>
       <c r="M2" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="N2" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="O2" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="P2" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
     </row>
     <row r="3">
@@ -26798,19 +26798,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>874.1831447324755</v>
+      </c>
+      <c r="F4" t="n">
         <v>874.1831447324754</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>874.1831447324755</v>
-      </c>
-      <c r="G4" t="n">
-        <v>874.1831447324754</v>
       </c>
       <c r="H4" t="n">
         <v>874.1831447324755</v>
       </c>
       <c r="I4" t="n">
-        <v>874.1831447324755</v>
+        <v>874.1831447324751</v>
       </c>
       <c r="J4" t="n">
         <v>874.1831447324755</v>
@@ -26822,10 +26822,10 @@
         <v>874.1831447324755</v>
       </c>
       <c r="M4" t="n">
+        <v>874.1831447324754</v>
+      </c>
+      <c r="N4" t="n">
         <v>874.1831447324755</v>
-      </c>
-      <c r="N4" t="n">
-        <v>874.1831447324754</v>
       </c>
       <c r="O4" t="n">
         <v>874.1831447324755</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.008981303900072</v>
+        <v>3.0089813039002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,22 +26931,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.00619681659458</v>
+        <v>88.00619681659441</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.017962607800257</v>
+        <v>6.0179626078003</v>
       </c>
       <c r="M2" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>84.99721551269447</v>
+        <v>84.99721551269437</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>633.1688558548162</v>
+        <v>633.1688558548163</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776595</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>633.1688558548165</v>
+        <v>633.1688558548163</v>
       </c>
       <c r="N4" t="n">
-        <v>-5.593929255044772e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.008981303900072</v>
+        <v>3.0089813039002</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.00619681659458</v>
+        <v>88.00619681659441</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>633.1688558548162</v>
+        <v>633.1688558548163</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>152.5970991193535</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>259.542103988905</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27463,19 +27463,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>164.0599347616699</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27581,10 +27581,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>395.0123189464189</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>289.1830869480649</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27706,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27751,19 +27751,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>199.693131720906</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>178.254990510254</v>
       </c>
     </row>
     <row r="7">
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>15.96843579630763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>331.7898455187701</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>204.7983536878428</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27934,19 +27934,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>130.0176882316828</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>84.66726425696442</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27988,10 +27988,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>14.95552117266971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28526,7 +28526,7 @@
         <v>91.01517812049464</v>
       </c>
       <c r="P16" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049458</v>
       </c>
       <c r="Q16" t="n">
         <v>91.01517812049464</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="C17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="D17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="E17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="F17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="G17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="H17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="I17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>11.02442803654645</v>
       </c>
       <c r="S17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="T17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="U17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="V17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="W17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="X17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="C19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="D19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="E19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="F19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="G19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="H19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="I19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="J19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="K19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="L19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="M19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="N19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="O19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="P19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.83109599207057</v>
+        <v>20.83109599206713</v>
       </c>
       <c r="R19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="S19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="T19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="U19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="V19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="W19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="X19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="C20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="D20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="E20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="F20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="G20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="H20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="I20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>11.02442803654645</v>
       </c>
       <c r="S20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="T20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="U20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="V20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="W20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="X20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="C22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="D22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="E22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="F22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="G22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="H22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="I22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="J22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="K22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="L22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="M22" t="n">
-        <v>94.02415942439471</v>
+        <v>20.83109599206682</v>
       </c>
       <c r="N22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="O22" t="n">
-        <v>20.83109599207071</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="P22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="R22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="S22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="T22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="U22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="V22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="W22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="X22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="C23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="D23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="E23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="F23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="G23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="H23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="I23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>11.02442803654645</v>
       </c>
       <c r="S23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="T23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="U23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="V23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="W23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="X23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="C25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="D25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="E25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="F25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="G25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="H25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="I25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="J25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="K25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="L25" t="n">
-        <v>94.02415942439471</v>
+        <v>20.83109599206688</v>
       </c>
       <c r="M25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="N25" t="n">
-        <v>20.83109599207063</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="O25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="P25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="R25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="S25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="T25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="U25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="V25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="W25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="X25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439484</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="C26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="D26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="E26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="F26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="G26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="H26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="I26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>11.02442803654645</v>
       </c>
       <c r="S26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="T26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="U26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="V26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="W26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="X26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Y26" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="C28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="D28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="E28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="F28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="G28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="H28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="I28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="J28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="K28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="L28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="M28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="N28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="O28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="P28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Q28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="R28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="S28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="T28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="U28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="V28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="W28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="X28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="C29" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="D29" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="E29" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="F29" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="G29" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="H29" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="I29" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>11.02442803654645</v>
       </c>
       <c r="S29" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="T29" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="U29" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="V29" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="W29" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="X29" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Y29" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="C31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="D31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="E31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="F31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="G31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="H31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="I31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="J31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="K31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="L31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="M31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="N31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="O31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="P31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Q31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="R31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="S31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="T31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="U31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="V31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="W31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="X31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.0151781204946</v>
+        <v>91.01517812049461</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="C32" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="D32" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="E32" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="F32" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="G32" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="H32" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="I32" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>11.02442803654645</v>
       </c>
       <c r="S32" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="T32" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="U32" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="V32" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="W32" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="X32" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="Y32" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="C34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="D34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="E34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="F34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="G34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="H34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="I34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="J34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="K34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="L34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="M34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="N34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="O34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="P34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.83109599206805</v>
+        <v>20.83109599207057</v>
       </c>
       <c r="R34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="S34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="T34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="U34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="V34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="W34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="X34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="Y34" t="n">
-        <v>94.02415942439478</v>
+        <v>94.02415942439471</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="C35" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="D35" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="E35" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="F35" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="G35" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="H35" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="I35" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>11.02442803654645</v>
       </c>
       <c r="S35" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="T35" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="U35" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="V35" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="W35" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="X35" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="Y35" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="C37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="D37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="E37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="F37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="G37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="H37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="I37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="J37" t="n">
-        <v>94.02415942439468</v>
+        <v>23.26166517368374</v>
       </c>
       <c r="K37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="L37" t="n">
-        <v>94.02415942439468</v>
+        <v>91.59359024278226</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83109599207097</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="N37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="O37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="P37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="Q37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="R37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="S37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="T37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="U37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="V37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="W37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="X37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.02415942439468</v>
+        <v>94.02415942439465</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="C38" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="D38" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="E38" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="F38" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="G38" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="H38" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="I38" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>11.02442803654645</v>
       </c>
       <c r="S38" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="T38" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="U38" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="V38" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="W38" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="X38" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="Y38" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="C40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="D40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="E40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="F40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="G40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="H40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="I40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="J40" t="n">
-        <v>94.02415942439475</v>
+        <v>23.26166517368374</v>
       </c>
       <c r="K40" t="n">
-        <v>94.02415942439475</v>
+        <v>91.59359024278223</v>
       </c>
       <c r="L40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="M40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="N40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="O40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="P40" t="n">
-        <v>20.83109599206905</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="Q40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="R40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="S40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="T40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="U40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="V40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="W40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="X40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
       <c r="Y40" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439465</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="C41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="D41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="E41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="F41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="G41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="H41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="I41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>11.02442803654645</v>
       </c>
       <c r="S41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="T41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="U41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="V41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="W41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="X41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Y41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="C43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="D43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="E43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="F43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="G43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="H43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="I43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="J43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="K43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="L43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="M43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="N43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="O43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="P43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Q43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="R43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="S43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="T43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="U43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="V43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="W43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="X43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Y43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049461</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="C44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="D44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="E44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="F44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="G44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="H44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="I44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>11.02442803654645</v>
       </c>
       <c r="S44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="T44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="U44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="V44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="W44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="X44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Y44" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="C46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="D46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="E46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="F46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="G46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="H46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="I46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="J46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="K46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="L46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="M46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="N46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="O46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="P46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Q46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="R46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="S46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="T46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="U46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="V46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="W46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="X46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Y46" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049461</v>
       </c>
     </row>
   </sheetData>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>317.5928051819474</v>
       </c>
       <c r="L12" t="n">
-        <v>461.7892826145838</v>
+        <v>215.1692584479172</v>
       </c>
       <c r="M12" t="n">
-        <v>623.2228086989692</v>
+        <v>157.5177449489693</v>
       </c>
       <c r="N12" t="n">
         <v>655.5833320762267</v>
       </c>
       <c r="O12" t="n">
-        <v>138.7818072850772</v>
+        <v>532.6441265618067</v>
       </c>
       <c r="P12" t="n">
-        <v>91.85628582584738</v>
+        <v>410.3190544657846</v>
       </c>
       <c r="Q12" t="n">
         <v>221.0573514940586</v>
@@ -35731,22 +35731,22 @@
         <v>317.5928051819474</v>
       </c>
       <c r="L15" t="n">
-        <v>278.0042510737035</v>
+        <v>489.067362667574</v>
       </c>
       <c r="M15" t="n">
-        <v>623.2228086989692</v>
+        <v>157.5177449489693</v>
       </c>
       <c r="N15" t="n">
-        <v>655.5833320762267</v>
+        <v>381.6852278565698</v>
       </c>
       <c r="O15" t="n">
         <v>532.6441265618067</v>
       </c>
       <c r="P15" t="n">
-        <v>91.85628582584738</v>
+        <v>410.3190544657846</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.9800637582095</v>
+        <v>221.0573514940586</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35813,7 +35813,7 @@
         <v>266.010984450329</v>
       </c>
       <c r="M16" t="n">
-        <v>286.0177834045623</v>
+        <v>286.0177834045622</v>
       </c>
       <c r="N16" t="n">
         <v>286.8705688403861</v>
@@ -35822,7 +35822,7 @@
         <v>255.7412552866359</v>
       </c>
       <c r="P16" t="n">
-        <v>208.2085295676597</v>
+        <v>208.2085295676596</v>
       </c>
       <c r="Q16" t="n">
         <v>87.8759213082849</v>
@@ -35904,7 +35904,7 @@
         <v>408.4140393084476</v>
       </c>
       <c r="Q17" t="n">
-        <v>228.7001571631556</v>
+        <v>228.7001571631557</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>110.9861240737758</v>
       </c>
       <c r="K18" t="n">
         <v>317.5928051819474</v>
@@ -35971,19 +35971,19 @@
         <v>489.067362667574</v>
       </c>
       <c r="M18" t="n">
-        <v>623.2228086989692</v>
+        <v>362.9620150728658</v>
       </c>
       <c r="N18" t="n">
-        <v>655.5833320762267</v>
+        <v>176.2409577326733</v>
       </c>
       <c r="O18" t="n">
-        <v>432.567139041712</v>
+        <v>532.6441265618067</v>
       </c>
       <c r="P18" t="n">
-        <v>91.85628582584738</v>
+        <v>410.3190544657846</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.9800637582095</v>
+        <v>221.0573514940586</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>70.76249425071097</v>
+        <v>70.7624942507111</v>
       </c>
       <c r="K19" t="n">
-        <v>186.9464177555647</v>
+        <v>186.9464177555648</v>
       </c>
       <c r="L19" t="n">
-        <v>269.019965754229</v>
+        <v>269.0199657542291</v>
       </c>
       <c r="M19" t="n">
-        <v>289.0267647084623</v>
+        <v>289.0267647084625</v>
       </c>
       <c r="N19" t="n">
-        <v>289.8795501442862</v>
+        <v>289.8795501442863</v>
       </c>
       <c r="O19" t="n">
-        <v>258.750236590536</v>
+        <v>258.7502365905361</v>
       </c>
       <c r="P19" t="n">
-        <v>211.2175108715597</v>
+        <v>211.2175108715599</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.69183917986084</v>
+        <v>17.69183917985739</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>623.2228086989692</v>
       </c>
       <c r="N21" t="n">
-        <v>655.5833320762267</v>
+        <v>309.8424833832997</v>
       </c>
       <c r="O21" t="n">
         <v>138.7818072850772</v>
       </c>
       <c r="P21" t="n">
-        <v>91.85628582584738</v>
+        <v>410.3190544657846</v>
       </c>
       <c r="Q21" t="n">
-        <v>193.7792714410686</v>
+        <v>221.0573514940586</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>70.76249425071097</v>
+        <v>70.7624942507111</v>
       </c>
       <c r="K22" t="n">
-        <v>186.9464177555647</v>
+        <v>186.9464177555648</v>
       </c>
       <c r="L22" t="n">
-        <v>269.019965754229</v>
+        <v>269.0199657542291</v>
       </c>
       <c r="M22" t="n">
-        <v>289.0267647084623</v>
+        <v>215.8337012761345</v>
       </c>
       <c r="N22" t="n">
-        <v>289.8795501442862</v>
+        <v>289.8795501442863</v>
       </c>
       <c r="O22" t="n">
-        <v>185.557173158212</v>
+        <v>258.7502365905361</v>
       </c>
       <c r="P22" t="n">
-        <v>211.2175108715597</v>
+        <v>211.2175108715599</v>
       </c>
       <c r="Q22" t="n">
-        <v>90.88490261218497</v>
+        <v>90.8849026121851</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>53.12756816936877</v>
+        <v>317.5928051819474</v>
       </c>
       <c r="L24" t="n">
-        <v>334.9928435201207</v>
+        <v>489.067362667574</v>
       </c>
       <c r="M24" t="n">
         <v>623.2228086989692</v>
       </c>
       <c r="N24" t="n">
-        <v>655.5833320762267</v>
+        <v>237.0435759161947</v>
       </c>
       <c r="O24" t="n">
         <v>532.6441265618067</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>70.76249425071097</v>
+        <v>70.7624942507111</v>
       </c>
       <c r="K25" t="n">
-        <v>186.9464177555647</v>
+        <v>186.9464177555648</v>
       </c>
       <c r="L25" t="n">
-        <v>269.019965754229</v>
+        <v>195.8269023219012</v>
       </c>
       <c r="M25" t="n">
-        <v>289.0267647084623</v>
+        <v>289.0267647084625</v>
       </c>
       <c r="N25" t="n">
-        <v>216.6864867119621</v>
+        <v>289.8795501442863</v>
       </c>
       <c r="O25" t="n">
-        <v>258.750236590536</v>
+        <v>258.7502365905361</v>
       </c>
       <c r="P25" t="n">
-        <v>211.2175108715597</v>
+        <v>211.2175108715599</v>
       </c>
       <c r="Q25" t="n">
-        <v>90.88490261218497</v>
+        <v>90.8849026121851</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>317.5928051819474</v>
@@ -36685,16 +36685,16 @@
         <v>623.2228086989692</v>
       </c>
       <c r="N27" t="n">
-        <v>176.2409577326733</v>
+        <v>237.0435759161947</v>
       </c>
       <c r="O27" t="n">
-        <v>272.3833329357036</v>
+        <v>532.6441265618067</v>
       </c>
       <c r="P27" t="n">
         <v>410.3190544657846</v>
       </c>
       <c r="Q27" t="n">
-        <v>221.0573514940586</v>
+        <v>10.9800637582095</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>67.75351294681091</v>
+        <v>67.75351294681087</v>
       </c>
       <c r="K28" t="n">
         <v>183.9374364516646</v>
       </c>
       <c r="L28" t="n">
-        <v>266.010984450329</v>
+        <v>266.0109844503289</v>
       </c>
       <c r="M28" t="n">
-        <v>286.0177834045623</v>
+        <v>286.0177834045622</v>
       </c>
       <c r="N28" t="n">
         <v>286.8705688403861</v>
@@ -36770,10 +36770,10 @@
         <v>255.7412552866359</v>
       </c>
       <c r="P28" t="n">
-        <v>208.2085295676597</v>
+        <v>208.2085295676596</v>
       </c>
       <c r="Q28" t="n">
-        <v>87.87592130828492</v>
+        <v>87.87592130828487</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,19 +36913,19 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K30" t="n">
-        <v>317.5928051819474</v>
+        <v>53.12756816936877</v>
       </c>
       <c r="L30" t="n">
         <v>489.067362667574</v>
       </c>
       <c r="M30" t="n">
-        <v>277.481960006042</v>
+        <v>623.2228086989692</v>
       </c>
       <c r="N30" t="n">
-        <v>655.5833320762267</v>
+        <v>180.4454011191484</v>
       </c>
       <c r="O30" t="n">
-        <v>138.7818072850772</v>
+        <v>532.6441265618067</v>
       </c>
       <c r="P30" t="n">
         <v>410.3190544657846</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.75351294681086</v>
+        <v>67.75351294681087</v>
       </c>
       <c r="K31" t="n">
         <v>183.9374364516646</v>
@@ -37010,7 +37010,7 @@
         <v>208.2085295676596</v>
       </c>
       <c r="Q31" t="n">
-        <v>87.87592130828486</v>
+        <v>87.87592130828487</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>53.12756816936877</v>
+        <v>317.5928051819474</v>
       </c>
       <c r="L33" t="n">
         <v>489.067362667574</v>
@@ -37159,16 +37159,16 @@
         <v>623.2228086989692</v>
       </c>
       <c r="N33" t="n">
-        <v>655.5833320762267</v>
+        <v>237.0435759161947</v>
       </c>
       <c r="O33" t="n">
         <v>532.6441265618067</v>
       </c>
       <c r="P33" t="n">
-        <v>91.85628582584738</v>
+        <v>410.3190544657846</v>
       </c>
       <c r="Q33" t="n">
-        <v>64.38218917691752</v>
+        <v>10.9800637582095</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>70.76249425071104</v>
+        <v>70.76249425071097</v>
       </c>
       <c r="K34" t="n">
         <v>186.9464177555647</v>
       </c>
       <c r="L34" t="n">
-        <v>269.0199657542291</v>
+        <v>269.019965754229</v>
       </c>
       <c r="M34" t="n">
-        <v>289.0267647084625</v>
+        <v>289.0267647084623</v>
       </c>
       <c r="N34" t="n">
-        <v>289.8795501442863</v>
+        <v>289.8795501442862</v>
       </c>
       <c r="O34" t="n">
         <v>258.750236590536</v>
       </c>
       <c r="P34" t="n">
-        <v>211.2175108715598</v>
+        <v>211.2175108715597</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.69183917985831</v>
+        <v>17.69183917986084</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>489.067362667574</v>
       </c>
       <c r="M36" t="n">
-        <v>623.2228086989692</v>
+        <v>157.5177449489693</v>
       </c>
       <c r="N36" t="n">
-        <v>309.8424833832997</v>
+        <v>655.5833320762267</v>
       </c>
       <c r="O36" t="n">
-        <v>138.7818072850772</v>
+        <v>258.74602234215</v>
       </c>
       <c r="P36" t="n">
         <v>410.3190544657846</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>70.76249425071094</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>186.9464177555647</v>
+        <v>186.9464177555646</v>
       </c>
       <c r="L37" t="n">
-        <v>269.019965754229</v>
+        <v>266.5893965726166</v>
       </c>
       <c r="M37" t="n">
-        <v>215.8337012761386</v>
+        <v>289.0267647084623</v>
       </c>
       <c r="N37" t="n">
-        <v>289.8795501442862</v>
+        <v>289.8795501442861</v>
       </c>
       <c r="O37" t="n">
-        <v>258.750236590536</v>
+        <v>258.7502365905359</v>
       </c>
       <c r="P37" t="n">
         <v>211.2175108715597</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.88490261218494</v>
+        <v>90.88490261218492</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>175.6497713946488</v>
+        <v>175.6497713946493</v>
       </c>
       <c r="K38" t="n">
         <v>385.2179235495885</v>
@@ -37627,19 +37627,19 @@
         <v>317.5928051819474</v>
       </c>
       <c r="L39" t="n">
-        <v>461.7892826145838</v>
+        <v>489.067362667574</v>
       </c>
       <c r="M39" t="n">
-        <v>623.2228086989692</v>
+        <v>362.9620150728658</v>
       </c>
       <c r="N39" t="n">
-        <v>655.5833320762267</v>
+        <v>176.2409577326733</v>
       </c>
       <c r="O39" t="n">
-        <v>138.7818072850772</v>
+        <v>532.6441265618067</v>
       </c>
       <c r="P39" t="n">
-        <v>91.85628582584738</v>
+        <v>410.3190544657846</v>
       </c>
       <c r="Q39" t="n">
         <v>221.0573514940586</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>70.76249425071101</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>186.9464177555647</v>
+        <v>184.5158485739522</v>
       </c>
       <c r="L40" t="n">
-        <v>269.0199657542291</v>
+        <v>269.019965754229</v>
       </c>
       <c r="M40" t="n">
-        <v>289.0267647084624</v>
+        <v>289.0267647084623</v>
       </c>
       <c r="N40" t="n">
-        <v>289.8795501442862</v>
+        <v>289.8795501442861</v>
       </c>
       <c r="O40" t="n">
-        <v>258.750236590536</v>
+        <v>258.7502365905359</v>
       </c>
       <c r="P40" t="n">
-        <v>138.0244474392341</v>
+        <v>211.2175108715597</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.88490261218502</v>
+        <v>90.88490261218492</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>607.2820421709052</v>
       </c>
       <c r="N41" t="n">
-        <v>602.3287050062374</v>
+        <v>602.3287050062379</v>
       </c>
       <c r="O41" t="n">
         <v>523.1178374893856</v>
@@ -37873,13 +37873,13 @@
         <v>655.5833320762267</v>
       </c>
       <c r="O42" t="n">
-        <v>532.6441265618067</v>
+        <v>138.7818072850772</v>
       </c>
       <c r="P42" t="n">
-        <v>91.85628582584738</v>
+        <v>410.3190544657846</v>
       </c>
       <c r="Q42" t="n">
-        <v>64.38218917691752</v>
+        <v>139.7817398137098</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>67.7535129468109</v>
+        <v>67.75351294681087</v>
       </c>
       <c r="K43" t="n">
         <v>183.9374364516646</v>
       </c>
       <c r="L43" t="n">
-        <v>266.010984450329</v>
+        <v>266.0109844503289</v>
       </c>
       <c r="M43" t="n">
-        <v>286.0177834045623</v>
+        <v>286.0177834045622</v>
       </c>
       <c r="N43" t="n">
         <v>286.8705688403861</v>
@@ -37955,10 +37955,10 @@
         <v>255.7412552866359</v>
       </c>
       <c r="P43" t="n">
-        <v>208.2085295676597</v>
+        <v>208.2085295676596</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.8759213082849</v>
+        <v>87.87592130828487</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>317.5928051819474</v>
+        <v>217.5158176618527</v>
       </c>
       <c r="L45" t="n">
         <v>489.067362667574</v>
@@ -38107,7 +38107,7 @@
         <v>623.2228086989692</v>
       </c>
       <c r="N45" t="n">
-        <v>234.4429327465072</v>
+        <v>655.5833320762267</v>
       </c>
       <c r="O45" t="n">
         <v>532.6441265618067</v>
@@ -38116,7 +38116,7 @@
         <v>91.85628582584738</v>
       </c>
       <c r="Q45" t="n">
-        <v>221.0573514940586</v>
+        <v>10.9800637582095</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>67.75351294681096</v>
+        <v>67.75351294681087</v>
       </c>
       <c r="K46" t="n">
-        <v>183.9374364516647</v>
+        <v>183.9374364516646</v>
       </c>
       <c r="L46" t="n">
-        <v>266.010984450329</v>
+        <v>266.0109844503289</v>
       </c>
       <c r="M46" t="n">
-        <v>286.0177834045624</v>
+        <v>286.0177834045622</v>
       </c>
       <c r="N46" t="n">
-        <v>286.8705688403862</v>
+        <v>286.8705688403861</v>
       </c>
       <c r="O46" t="n">
-        <v>255.741255286636</v>
+        <v>255.7412552866359</v>
       </c>
       <c r="P46" t="n">
-        <v>208.2085295676597</v>
+        <v>208.2085295676596</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.87592130828496</v>
+        <v>87.87592130828487</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
